--- a/storage/excel/shnq/1.xlsx
+++ b/storage/excel/shnq/1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SHNK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\CCNIS\storage\excel\shnq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7077E076-18A6-4170-8ED0-986B66A92C0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="9312" windowWidth="30684" windowHeight="7344" xr2:uid="{BA4B129E-9822-4D50-9CB7-A112D96F0633}"/>
+    <workbookView xWindow="15" yWindow="9315" windowWidth="30690" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,38 +29,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="482">
-  <si>
-    <t>SHNQ</t>
-  </si>
-  <si>
-    <t>Tegishli band va abzats</t>
-  </si>
-  <si>
-    <t>BOB</t>
-  </si>
-  <si>
-    <t>MAVZU</t>
-  </si>
-  <si>
-    <t>ШМҚ 3.01.03-19</t>
-  </si>
-  <si>
-    <t>1. ҚЎЛЛАНИШ СОҲАСИ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
   <si>
     <t>Мазкур қурилишда геодезик ишлар бўйича меъёрлар ва қоидалар янги бинолар ва иншооотлар қурилишида ,шу билан бир қаторда бошқа қурилиш объектларидаги кенгайтириш,реконструкциялаш ва амалда ишлаб турган корхоналарни,бинолар ва иншоотларни техник жиҳатдан қайта жиҳозлаш ишларидаги қурилиш ишлари ва қабул қилиш ишларидаги бажариладиган геодезик ишларнинг тартибини белгилайди. Қурилиш объектларининг конструктив хусусиятлари ва мақсадига боғлиқ равишда, бошқа шаҳарсозлик меъёрлари ва қоидаларида, қурилишда геометрик параметрлар аниқлигини таъминловчи системаларда, давлат стандартларида, идоравий норматив ҳужжатларда ва белгиланган тартибда келишилган ва тасдиқланган давлат назорати органлари ҳужжатларида келтирилган талабларга риоя қилиниши зарур. Шунингдек, лойиҳа ҳужжатларида кўзда тутилган қўшимча талабларга ҳам риоя қилиш зарур.</t>
   </si>
   <si>
-    <t>2. НОРМАТИВ ҲАВОЛАЛАР</t>
-  </si>
-  <si>
     <t xml:space="preserve">Мазкур меъёрлар ва қоидаларда техник меъёрлаштириш ва стандартизациялаш соҳасининг қуйидаги меъёрий ҳужжатларига ҳавола қилинган ва фойдаланилган. 1. ҚМҚ 3.01.03-09 “Қурилишда геодезик ишлар”. Қоидалар тўплами; 2. ШНҚ 1.03.01-03 Корхона, бино ва иншооотларни капитал қурилиши лойиҳа ҳужжатларининг таркиби, ишлаб чиқиш тартиби, келишилиши ва тасдиқланиши; 3. ШНҚ 3.01.04-04 Қурилиши тугалланган объектларни фойдаланишга қабул қилиш; 4. ГОСТ 21778-81 Қурилишда геометрик параметрлар аниқлигини таъминлаш системаси. Умумий қоидалар; 5. ГОСТ 23615-79 Қурилишда геометрик параметрлар аниқлигини таъминлаш системаси.Аниқликни систематик таҳлил қилиш; 6. ГОСТ 23616-79 Қурилишда геометрик параметрлар аниқлигини таъминлаш системаси.Аниқликни назорат қилиш; 7. ГОСТ 26433.0-85 Қурилишда геометрик параметрлар аниқлигини таъминлаш системаси.Ўлчашларни бажариш қоидаси.Умумий қоидалар; 8. ГОСТ 26433.2-94 Қурилишда геометрик параметрлар аниқлигини таъминлаш системаси.Бино ва иншоотлар параметрлариниўлчашларни бажариш қоидаси; 9. Қурилиш-монтаж ташкилотларининг геодезик хизмати ҳақидаги намунавий қоидалар; 10. Бино ва иншоотларнинг геометрик параметрлари ва уларни тайёрланадиган элементларининг аниқлигини геодезик назорат қилиш ҳақидаги қўлланма; 11. Қурилиш майдонида ўлчаш воситаларини номинал қиймати ҳақида тавсиялар; 12. ГОСТ 21780-06 Қурилишда геометрик параметрлар аниқлигини таъминлаш системаси.Аниқлик ҳисоби (МДҲ давлатлараро стандарти); 13. ГОСТ 22845-85 Пассажир ва юк ташувчи электр билан ишлайдиган лифтлар. Монтаж ишларини ташкил қилиш, амалга ошириш ва қабул қилиш қоидалари; 14. ШНҚ 03.02.01-97 Тупроқдан қурилган иншоотлар, асослар ва пойдеворлар; 15. ШНҚ 3.03.01-98 Юк кўтарувчи ва тўсиш конструкциялари; 16. Ер участкаларини ажратиш, қизил чизиқлар ва қуришни тартибга солиш чизиқларининг геометрик параметрларини белгилашни амалга ошириш бўйича қоидалар тўплами. Ўзбекистон Республикаси Давархитектқурилиш 2008. </t>
   </si>
   <si>
-    <t>3. АТАМАЛАР ВА ТАЪРИФЛАР</t>
-  </si>
-  <si>
     <t>3.1 Геодезик боғлаш: қабул қилинган координаталар ва баландликлар системасида жойдаги маҳкамланган нуқталар, бинолар ва уларнинг элементлари ҳолатини аниқлаш.</t>
   </si>
   <si>
@@ -146,9 +121,6 @@
     <t>3.28 Эгилиш: балкалар (аркалар, рамалар ва (ёки) конструкциянинг бошқа қисмлари) ўқида ётувчи, турли кучлар, ҳароратлар ва бошқа босимлар таъсир этиши натижасида юзага келадиган деформация туфайли конструкциянинг ишлаш ҳолатини характерловчи маълум нуқтанинг вертикал силжиши.</t>
   </si>
   <si>
-    <t>Қисқартиришлар ва белгилашлар</t>
-  </si>
-  <si>
     <t>ГИБЛ - геодезик ишларни бажариш лойиҳаси; ИБЛ - ишларни бажариш лойиҳаси; ҚТЭЛ - қурилишни ташкил этиш лойиҳаси; СНС - спутникавий навигация системаси; КҲЯС - конструкторлик ҳужжатларнинг ягона системаси; ҚЛҲС - қурилиш учун лойиҳавий ҳужжатлар системаси; ГТС - газ тақсимлаш станцияси; ТП - тақсимлаш пункти; ТП - трансформатор пункти; ҚМОИГП - қурилиш майдонинг оператив ижроий геодезик плани;</t>
   </si>
   <si>
@@ -278,9 +250,6 @@
     <t>6. ҚУРИЛИШ УЧУН ГЕОДЕЗИК РЕЖАЛАШ АСОСИ</t>
   </si>
   <si>
-    <t>6.1. Асосий қоидалар</t>
-  </si>
-  <si>
     <t>6.1.1 Қурилиш учун геодезик режалаш асосини, бино (иншооот)нинг жойдаги ўрнини аниқловчи ва кам харажат ,керакли аниқликда, қурилиш жараёнида кейинчалик бўладиган қурилишлар ва ўлчашларни бажаришни таъминловчи белгилар билан маҳкамланган, геодезик пунктлар кўринишида барпо этиш керак.</t>
   </si>
   <si>
@@ -332,9 +301,6 @@
     <t>6.1.17 Қабул қилинган геодезик режалаш асоси белгилари объектдан фойдаланиш жараёнида сақланганлиги ва турғунлиги доимий кузатиб турилиши керак, бунда уларнинг барқарорлик ҳолати асбоблар билан, дала назорат ўлчашларини бажариш орқали текшириб борилиши керак.</t>
   </si>
   <si>
-    <t>6.2. Геодезик режалаш асосининг тузилиши</t>
-  </si>
-  <si>
     <t>6.2.1 Қурилиш учун геодезик режалаш асоси қурилиш майдонининг планли ва баландлик ёки планли-баландлик режалаш тўрлари пунктларидан ташкил топган. Қурилиш майдонининг планли режалаш тўрлари пунктларига нисбатан, объектнинг мустақил режалаш тўрини ташкил қилувчи, бинонинг бош ёки асосий (габаритига тегишли) ўқлари пунктлари жойга кўчирилади. Реперлар ва қурилишнинг баландлик тармоқлари пунктларига нисбатан,конструкцияларбаландлик бўйича лойиҳавий ҳолатига кўчирилади.</t>
   </si>
   <si>
@@ -353,9 +319,6 @@
     <t>6.2.6 Қурилиш майдонининг планли ва баландлик режалаш тўрларининг чизмалари бош план масштабида тузилади. Унга қуйидагилар илова қилинади: - режалаш тўрларининг амалдаги давлат геодезик ва нивелирлаш тўрлари ёки зичлаштириш тўрлари пунктлари ва реперларига боғланиш хусусиятлари ҳисобга олинган планли-баландлик режалаш тўрларини тузишнинг аниқлиги тўғрисидаги маълумотлар; - геодезик пунктлар марказлари турларининг тавсифи ва уларни ўрнатиш усуллари.</t>
   </si>
   <si>
-    <t>6.3.Қурилиш майдонининг қурилиш геодезик тўри</t>
-  </si>
-  <si>
     <t>6.3.1 Қурилиш майдонининг қурилиш геодезик тўри квадратлар ёки тўртбурчаклар учларида жойлашган геодезик пунктлар системасидан ташкил топган. Қурилиш тўрининг томонлари бино (иншооот) ўқлари ёки қурилишнинг қизил чизиқларига параллел равишда лойиҳаланади.  Қурилиш майдони ва объектларнинг ўлчамларига боғлиқ равишда қурилиш тўри асосий ва қўшимча пунктлар билан маҳкамланади. Тўрнинг асосий шакллари томонларининг узунлиги 50, 100, 200 ёки 400метрга тенг қилиб олинади. Кўп қаватли бинолар қурилишида қурилиш тўрининг томонлари 25,30,50 метрга тенг қилиб олинади.</t>
   </si>
   <si>
@@ -392,9 +355,6 @@
     <t>6.3.12 Планли қурилиш тўрларини, ҳамда II ва III класс қурилиш нивелир тармоқларини тенглаштириш қатъийусул билан бажарилади. 1- ва 2 - разрядли геодезик тармоқларини, IV класс нивелир тармоқларини, албатта ўлчаш аниқлигини баҳолаб, тақрибийусулда тенглаштиришга йўл қўйилади. Ўлчашларни ва тенглаштиришларни қайта ишлаш учун лицензияли сертификатланган дастурий маҳсулотлардан фойдаланилади.</t>
   </si>
   <si>
-    <t>6.4. Биноларни(иншооотларни) режалаш асослари</t>
-  </si>
-  <si>
     <t>6.4.1 Бино (иншооот)нинг режалаш асоси, унинг режалаш ўқларини (бош, асосий)ва нивелир пунктларини жойда маҳкамловчи планли (ўқлар бўйича) белгилар ва баландлик реперлар тўри кўринишида тузилади.</t>
   </si>
   <si>
@@ -497,9 +457,6 @@
     <t>8. БИНОЛАРНИНГ ПОЙДЕВОРЛАРИ ВА ЕР ОСТИ ҚИСМЛАРИНИ ҚУРИШДА ГЕОДЕЗИК ИШЛАРНИ БАЖАРИШ</t>
   </si>
   <si>
-    <t>8.1. Ўқларни батафсил режалаш</t>
-  </si>
-  <si>
     <t>8.1.1 Режалаш ишларини оптикавий ва лазерли асбоблар – нивелирлар, шовунлар, вертикал – горизонтал текисликларни шакллантирувчиқурилмалар ва электрон тахеометрлар ёрдамида амалга ошириш керак.</t>
   </si>
   <si>
@@ -524,9 +481,6 @@
     <t>8.1.8 Ўқларни батафсил режалаш бинонинг асосий ўқларини режалаш ижроий чизмаси билан расмийлаштирилади (16-илова). Бу ҳолда ўқларни топшириш-қабул қилиш далолатномаси 10-иловада келтирилган шакл бўйича тузилади.</t>
   </si>
   <si>
-    <t>8.2. Қурилиш –монтаж ишларини баландлик бўйича таъминлаш</t>
-  </si>
-  <si>
     <t>8.2.1 Бино қурилиши учун котлован контуридан ташқарида иккитадан кам бўлмаган ташқи қурилиш(ишчи) реперлари маҳкамланади, кўп секцияли уйлар учун эса иккита секцияга биттадан кам бўлмаган қурилиш репери маҳкамланади. Ишчи реперлар сифатида бинонинг бош ва асосий режалаш ўқлари белгиларидан фойдаланиш мақсадга мувофиқ.</t>
   </si>
   <si>
@@ -536,9 +490,6 @@
     <t>8.2.3 Котлованни қазигандан сўнг унга ишчи реперлар ўрнатилади.Уларнинг отметкаларитўғри ва тескари нивелирлаш орқали аниқланади. Бундан ташқари отметкаларни юк (10кг)билан кронштейнга осилган компарирланган рулетка, иккита нивелир ва нивелир рейкалари ёрдамида ҳам узатиш мумкин.</t>
   </si>
   <si>
-    <t>8.3. Йиғма пойдеворларни монтаж қилишдаги геодезик ишлар</t>
-  </si>
-  <si>
     <t>8.3.1 Котлован тагига асосий ўқларни кесишиш нуқталари ўтказилади: йирик иншоотлар учун электрон тахеометр ёки электрон теодолит ёрдамида, узунлиги 100дан 140 метргача бўлган объектлар учун эса, иҳота деворига маҳкамланган тор (ингичка сим) ва шовунлар ёрдамида.</t>
   </si>
   <si>
@@ -563,9 +514,6 @@
     <t>8.3.8 Йиғма пойдеворлар қаторларидан биттасининг монтажи, иккита ўзаро перпендикуляр режалаш ўқлари бўйлаб ўрнатилган ва ориентирланган иккита электрон тахеометр ёки теодолит ёрдамида олиб борилади. Пойдевор блоклари тайёрланган бетон устида иккита ўзаро перпендикуляр йўналишларда,блокларга туширилган (чизилган) нишонлар теодолитларнинг визирлаш чизиқлари билан мос келадиган ҳолатигача, силжитилади. Кейинги ШНҚ 3.01.03-19 28 -бет. пойдевор блокларининг монтажи электрон тахеометр ёки теодолит ва рулетка ёрдамида амалга оширилади. Пойдевор блоки теодолитлар ёрдамида ўқлардан биттасининг створига ўрнатилади (бўйлама ёки кўндалангига), унга перпендикуляр ўқ створига эса, пойдевор блоки лойиҳада белгиланган масофа бўйича ўрнатилади. Бу масофа аввалги ўрнатилган блокдаги нишонларга нисбатан ўлчанади. Пойдевор блокларининг икки – уч қатори ўрнатилгандан сўнг, уларнинг планли ҳолати теодолитлар ёрдамида, иҳота деворига маҳкамланган бирламчи (бошланғич) режалаш ўқларига параллел, ўзаро (бир-бирига) перпендикуляр бўлган ёрдамчи ўқларга нисбатан, назорат қилинади.</t>
   </si>
   <si>
-    <t>8.4. Монолит пойдеворларни ўрнатишдаги геодезик ишлар</t>
-  </si>
-  <si>
     <t>8.4.1 Монолит пойдеворларни ўрнатишда арматура ва қолип ўқларга уларни лойиҳавий боғлашга мувофиқ жойлаштирилади. Иҳота деворидаги ўқ нуқталари орқали симлар тортилади, уларга шовун осилади, улардан чизиқли ўлчашлар ёрдамида арматура ва қолипнинг планли ҳолати топилади. Алоҳида устунсимон пойдеворлар қуриладиган ўқлар, агар улар сийраклаштирилган створлииҳота деворида маҳкамланмаган бўлса, олдиндан режаланади. Режалаш яқинда жойлашган ўқлар маҳкамланган белгилардан, теодолит ва рулетка ёрдамида амалга оширилади. Ўқларнинг нуқталари бевосита пойдевор котлованининг юқорги чеккасида мустаҳкам қозиқ (штир) ёрдамида қайд қилинади. Қозиқлар (штирлар)орқали шовунлар осилган ўқ сим тортилади.</t>
   </si>
   <si>
@@ -587,9 +535,6 @@
     <t>8.4.7 Стакан туридаги пойдевор қурилганда стакан қолипи шундай ўрнатиладики, бетонлашдан кейин стаканнинг таги лойиҳавийотметкадан 2-3см паст бўлсин. Қолип олингандан сўнг стаканнинг деворига нивелир ёрдамида бетонлашнинг лойиҳада белгиланган отметкаси қўйилади ва цемент қоришмаси қуйилади.</t>
   </si>
   <si>
-    <t>8.5.Сваяли пойдеворларни қуришдаги геодезик ишлар</t>
-  </si>
-  <si>
     <t>8.5.1 Свая майдонини режалаш, котловандаги қозиқларга узатилган ўқлар кесишган нуқталардан амалга оширилади. Электрон тахеометр ўқлар кесишган нуқталар устида кетма-кет марказлаштирилади, ўқ створи бўйлаб йўналтирилади ва шу йўналиш бўйича сваяларнинг марказларигача лойиҳавий масофалар қўйиб чиқилади. Сваялар жойлашган жой металл штирлар ёрдамида маҳкамланади. Ўқларда жойлашмаган сваялар учун марказлар ўрни, ўқлардан перпендикулярлар усули билан аниқланади. Сваялар тўп бўлиб жойлашганда, уларни тўп ичида андоза ёрдамида белгилаш тавсия қилинади.</t>
   </si>
   <si>
@@ -608,9 +553,6 @@
     <t>8.5.6 Ростверкасизсваяли пойдеворлар қурилганда, сваялар уриб киритилгандан кейин, уларга каллакларининг (оголовок) пастки қисминиотметкаси узатилади. Ушбу отметкага биноан каллакларни ушлаб турувчи қисқичлар (хомутлар) мустаҳкамланади. Планда каллакларни сваяларга ўрнатиш, сваяларнинг планли силжишини ҳисобга олган ҳолда амалга оширилади.</t>
   </si>
   <si>
-    <t>8.6. Ўқларни пойдеворга кўчириш</t>
-  </si>
-  <si>
     <t>8.6.1 Пойдеворни қуриб бўлгандан сўнг, унга жойда ва иҳота деворида маҳкамланган бош (асосий) ва оралиқ ўқлар кўчирилади. Ўқлар пойдеворга, 9аиловада кўрсатилганидек, бўёқ, белги қўйишлар ёрдамида маҳкамланади.</t>
   </si>
   <si>
@@ -620,9 +562,6 @@
     <t>8.6.3 Ўқлар пойдеворга кўчирилганда нишонлар(белгилар) орасини чизиқли ўлчашлар билан текшириш зарур. Назорат натижалари ўқларни кўчиришнинг ижроий схемасида кўрсатилади. Ўқларни топшириш –қабул қилиш далолатномаси 10б-иловада келтирилган шакл бўйича бажарилади.</t>
   </si>
   <si>
-    <t>8.7. Бинонинг ертўла қисмини монтаж қилишдаги геодезик ишлар</t>
-  </si>
-  <si>
     <t>8.7.1 Бинонинг ертўла қисмини блоклардан қуришдаги геодезик ишлар 8.3 – бандга биноан бажарилади. Блоклар монтажи тугатилгандан сўнг, уларнинг планли-баландлик съёмкаси бажарилади.</t>
   </si>
   <si>
@@ -641,9 +580,6 @@
     <t>9. БИНО ВА ИНШОООТЛАРНИНГ ЕР УСТИ ҚИСМИНИ ҚУРИШДА ГЕОДЕЗИК ИШЛАРНИ БАЖАРИШ</t>
   </si>
   <si>
-    <t>9.1. Бошланғич горизонтда ички режалаш тўрини қуриш</t>
-  </si>
-  <si>
     <t>9.1.1 Бино (иншооот)нинг ички режалаш тўри бинодаги ўқлар ва баландлик белгилари кўринишида тузилади ва улар монтаж горизонтида батафсил режалаш ишларини ҳамда ижроий съёмкаларни бажаришга хизмат қилади.</t>
   </si>
   <si>
@@ -680,9 +616,6 @@
     <t>9.1.12 Асосий режалаш ўқининг батамом аниқланган нуқталари,бошланғич горизонтда ишончли равишда маҳкамланади ва ювилмайдиган бўёқ билан белгиланади.</t>
   </si>
   <si>
-    <t>9.2. Бинонинг планли ва баландлик тўрларини монтаж горизонтига узатиш</t>
-  </si>
-  <si>
     <t>9.2.1 Баландлиги 50 метргача бўлган объектларни қуришда планли тўр марказининг координаталари, бошланғич горизонтдан монтаж горизонтига теодолит ёки электрон тахеометр ёрдамида қия проекциялаш усулида узатилади, бунда иншоотдан 1,5Н масофада оптикавий кўриниш мавжуд бўлиши керак , бу ерда Н- иншоотнинг баландлиги.</t>
   </si>
   <si>
@@ -719,9 +652,6 @@
     <t>9.2.12 Нисбий баландлик лазер рулеткасининг вертикал нури бўйича, ГИБЛда кўзда тутилган, геодезик туйнуклар орқали аниқланади. Ўлчашлар схемаси геометрик жиҳатдан содда бўлиши керак. Масалан, бошланғич горизонтда баландлик белгисига иккита кўтаргич винтли пластина кўринишидаги А таглик битта нуқтаси билан таяниб туради. Таглик адилак ёрдамида ўрнатилади, унга лазер нури тўпламини тик йўналишга келтирувчи тегишли арматура билан жиҳозланган лазер рулеткаси ўрнатилади.</t>
   </si>
   <si>
-    <t>9.3.Батафсил режалаш ишлари</t>
-  </si>
-  <si>
     <t>9.3.1 Бошланғич ва монтаж горизонтларидаги батафсил режалаш ишлари, конструкцияларни монтаж қилиш учун ўқларни лойиҳадан жойга кўчириш ва белгилашдан иборат. Монтаж нишонлари монтаж қилинган таянч конструкциялар юзасига туширилади. Таянч юзаларининг отметкалари аниқланади. Ҳар бир девор панели учун иккитадан кам бўлмаган монтаж нишонлари кўчирилади ва маяклар қалинлигини ҳисоблаш учун камида иккита отметка аниқлананади. Монтаж нишонларига параллел равишда улардан 100мм масофада,планда ўқларга нисбатан панелларни ўрнатишни назорат қилиш ва уларнинг планли съёмкасини бажаришни енгиллаштириш учун назорат нишонлари туширилади. Кўп ярусли каркаснинг ҳар бир устунидан, аввалроқ монтаж қилинган устун каллагининг тўрттала томонига ўқларни маҳкамлаш нишонлари кўчирилади, ҳамда каллакнинг отметкаси аниқланади. Устунларни монтаж қилиш учун кондукторлар гуруҳи қўлланилганда, олдинги ярус устунлари каллакларида фақат ўрта бўйлама ўқни ва битта кўндаланг ўқни режалаш ва маҳкамлаш керак. Бир қаватли саноат биноларининг устунлари, ёки кесилмайдиган устунларни монтаж қилишда, бинонинг бутун баландлиги бўйича пойдевор стаканларига унинг тўрттала томонидан режалаш ўқлари кўчирилади. Биноларнинг ғиштдан кўтариладиган ер устки қисмини қуришда, том қоплама плиталарининг ўқлари кесишган жойларига деворларнинг ички қирралари чиқарилади ва нишонлар ёрдамида маҳкамланади. Сирғанма қолипни қўллаб монолит биноларни қуришда батафсил режалашни, қолипни пойдеворга лойиҳавий ҳолатда ўрнатишдан олдин бажарилади. Қайта қўйиладиган қолипни қўллаб монолит биноларни қуришда батафсил режалаш ҳар бир монтаж горизонтида амалга оширилади.Қолиплар элементларини ўрнатиш учун нишонлар узатилади ва маякларни ҳисоблаш учун таянч юзаларининг отметкалари аниқланади.</t>
   </si>
   <si>
@@ -740,9 +670,6 @@
     <t>9.3.6 Лазер визирлари ёрдамида режалаш ўқларини батафсил тузиш аниқлигига қуйидагилар таъсир қилади</t>
   </si>
   <si>
-    <t>9.4 Биноларни ер устки қисмининг конструкцияларини қуришдаги геодезик ишлар</t>
-  </si>
-  <si>
     <t>9.4.1 Монтаж қилинувчи қурилиш конструкцияларининг пастки кесими таянч юзасига (том қопламалари, устунлар каллаги ёки пойдевор стаканлари) узатилган тегишли нишонлар бўйича ўрнатилади. Конструкциялар вертикал ҳолатда рейка- шовунлар (девор панелларини) ёки теодолитлар (устунларни) ёрдамида ўрнатилади. Устунларни гуруҳли кондуктор ёрдамида монтаж қилишда, дастлаб унинг геометрик параметрлари текширилади, ҳамда теодолит ёрдамидарежалаш ўқлари бўйича кондуктор ўрнатилади.</t>
   </si>
   <si>
@@ -794,9 +721,6 @@
     <t>9.4.17 Ғиштли бино қурилишида кўтарилаётган деворларнинг қалинлиги текшириб борилади (қирқими девор қалинлигига тенг бўлган андоза-рейка билан). Терилган ғиштлар қаторининг горизонталлигини ғишт ва эритма чоки қалинлиги бўйича назорат қилинади. Қаторларароғишт териладиган чизиқни кўрсатувчи шнур тортилади. Деворларнинг терилган элементларининг планли ҳолати, бинонинг бўйлама ва кўндаланг режалаш ўқларидан чизиқли ўлчашлар орқали назорат қилинади.</t>
   </si>
   <si>
-    <t>9.5. Жиҳозларни монтаж қилишдагигеодезик ишлар</t>
-  </si>
-  <si>
     <t>9.5.1 Жиҳозлар монтажини геодезик назорат қилиш учун қуйидаги ҳужжатлар керак: - бинолар ўқларининг, пойдеворларнинг, жиҳозлар жойлашган жойининг, конструкцияларнинг планлари; - пойдеворлар ва жиҳозлар характерли қисмларининг қирқимлари; - жиҳозлар пойдеворлари ва бошқа таянч юзаларнинг ижроий съёмкаларининг схемалари; - таянч юзалардаги режалаш тўрининг схемаси.</t>
   </si>
   <si>
@@ -845,9 +769,6 @@
     <t>9.5.16 Краности конструкцияларини монтаж қилиш учун аниқ теодолитлар, нивелирлар, электрон тахеометрлар, лазер асбоблари, махсус визир маркалари ва шу каби асбоб-ускуналар қўлланилади.</t>
   </si>
   <si>
-    <t>9.6. Сирғанма опалубкани монтаж қилишда геодезик ишлар</t>
-  </si>
-  <si>
     <t>9.6.1 Сирғанма опалубкани монтаж қилиш жараёнида опалубка ўрнатиладиган ўқларни режалаш ўқларига нисбатан силжиши назорат қилинади. Силжишни теодолит, электрон тахеометр ёки лазерли асбоблар ёрдамида назорат қилинади.</t>
   </si>
   <si>
@@ -890,9 +811,6 @@
     <t>9.6.14 Опалубканинг деформациясини кузатиш аниқлиги батафсил режалаш ишлари аниқлигига мос бўлиши керак.</t>
   </si>
   <si>
-    <t>9.7.Оболочкаларни монтаж қилишдаги геодезик ишлар</t>
-  </si>
-  <si>
     <t>9.7.1 Оболочкаларнинг йиғма элементлари монтажини назорат қилишучун ички режалаш тўри барпо этилади.</t>
   </si>
   <si>
@@ -923,9 +841,6 @@
     <t>10. БИНОЛАР ГЕОМЕТРИК ПАРАМЕТРЛАРИНИНГ АНИҚЛИГИНИ ГЕОДЕЗИК НАЗОРАТИ</t>
   </si>
   <si>
-    <t>10.1. Умумий талаблар</t>
-  </si>
-  <si>
     <t>10.1.1 Бинолар (иншооотлар)ни қуриш ёки муҳандислик тармоқларини ётқизиш жараёнида, қурилиш – монтаж ташкилоти (бош пудратчи, субпудратчи) ишлаб чиқаришда сифат назоратининг мажбурий таркибий қисми бўлган, бинолар (иншооотлар) геометрик параметрларининг аниқлик назоратини ўтказиши керак.</t>
   </si>
   <si>
@@ -971,9 +886,6 @@
     <t>10.1.15 Ободонлаштиришда, вертикал текислашда,йўл қопламаси учун жой тайёрлашда, траншеяларда, хандақларда, кўтарма жойларва шу кабиларда тупроқ ишларини амалга ошириш аниқлигининг назоратини ҳам планда, ҳам баландлик бўйича олиб бориш керак. Планда назорат қилинадиган нуқталарнинг ҳажмини,қуриладиган иншоотни режалашдаги жойга кўчириладиган нуқталар (картограммадаги ШНҚ 3.01.03-19 49 -бет. квадратларнинг учлари, хандақлар габаритлари, траншеялар бурилиш бурчаклари ва ш.ў.) сонининг камида 10% ҳажмда олиш керак. Пойдевор остидаги қўлда тозаланадиган тупроқ асосинингбаландлигини текшириш ялпи назорат орқали амалга оширилади. Хандақ тубини баландлик бўйича тозалаш аниқлиги геометрик нивелирлаш орқали амалга оширилади.</t>
   </si>
   <si>
-    <t>10.2. Биноларнинг геометрик параметрлари аниқлигини геодезик назорат қилишнинг мазмуни</t>
-  </si>
-  <si>
     <t>10.2.1 Бинолар геометрик параметрлари аниқлигини геодезик назорати қурилиш технологик жараёнининг таркибий қисми ҳисобланиши керак. Назорат ўлчашларнинг геодезик асоси бўлиб, бинонинг режалаш тўри белгилари, уларга параллел бўлган режалаш ўқлари ва чизиқлари, конструкциялар ён қирраларига ўрнатиладиган нишонлар(рискалар), реперлар, маяклар ва маркалар ҳисобланади. Геодезик назорат конструкцияларнинг планли, баландлик бўйича ва вертикалга нисбатан ҳақиқий ҳолатини , вақтинча маҳкамлаш босқичидаги (технологик процесс давомида(операцион)назорат) каби, уларни батамом маҳкамлагандан кейинги (қабул қилиш назорати) босқичида ҳам аниқлашни ўзида мужассамлаштиради.</t>
   </si>
   <si>
@@ -1022,9 +934,6 @@
     <t>11. МУҲАНДИСЛИК ТАРМОҚЛАРИ ВА ЕРОСТИ МУҲАНДИСЛИК КОММУНИКАЦИЯЛАРИ ТРАССАЛАРИНИ ЁТҚИЗИШДАГИ ГЕОДЕЗИК ИШЛАР</t>
   </si>
   <si>
-    <t>11.1.Муҳандислик тармоқлари ва ерости муҳандислик коммуникациялари трассаларини жойга кўчиришга тайёрлаш</t>
-  </si>
-  <si>
     <t>11.1.1 Муҳандислик тармоқларини ётқизишнинг геометрик аниқлигини таъминлаш учун уларнинг трассалари бўйлаб планли ва баландлик бўйича режалаш асослари пунктлари маҳкамланади ва уларнинг координаталари керакли аниқликда, 6-бўлим, 2,3 -жадваллар талабларига асосан аниқланади.</t>
   </si>
   <si>
@@ -1070,9 +979,6 @@
     <t>11.1.15 Трассани планда режалашнинг тўғрилиги қизил чизиқлар нуқталарига, тор кўчалар ўқига нисбатан, мавжуд аниқ контур нуқталаридан, трассаолди теодолит йўлидан ва геодезик тўрларининг энг яқин пунктларидан аниқланади.</t>
   </si>
   <si>
-    <t>11.2. Муҳандислик тармоқларини ётқизишдаги геодезик режалаш ишлари</t>
-  </si>
-  <si>
     <t>11.2.1 Босимсиз трубопроводларни монтаж қилишдан олдин,қўшимча реперларни шундай ўрнатиш керак-ки, баландлик бўйича режалашларда нивелирдан ҳар иккита яқин реперларгача бўлган масофа 100 метрдан ортиб кетмасин. Уларнинг отметкалари яқин реперлардан техникавий нивелирлаш орқали аниқланади.</t>
   </si>
   <si>
@@ -1124,9 +1030,6 @@
     <t>11.2.17 Шаҳар чегарасидан ташқарида ер ости кабел алоқа линиялари трассалари қўриқлаш-огоҳлантириш белгилари бўлган кўрсатувчи (опознавательный) устунлар билан белгиланади.</t>
   </si>
   <si>
-    <t>11.3. Трубопроводларни лазер асбобларини қўллаб монтаж қилиш</t>
-  </si>
-  <si>
     <t>11.3.1 Қурилиш ва муҳандислик тармоқларини (канализация, водрпровод,газопровод, магистрал трубопроводлар) ётқизиш аниқлигини назорат қилиш жараёнида, лойиҳа йўналиши ва қиялигига риоя қилиш учун мосламалар комплекти билан лазерли асбобларни қўллаш тавсия қилинади.</t>
   </si>
   <si>
@@ -1145,9 +1048,6 @@
     <t>12. ГЕОДЕЗИК ИЖРОИЙ СЪЁМКАЛАР</t>
   </si>
   <si>
-    <t>12.1. Бинолар қурилишидагиижроий геодезик съёмкаларни расмийлаштириш</t>
-  </si>
-  <si>
     <t>12.1.1 Ижроий геодезик съёмкалар қурилиш –монтаж ишларини амалга оширувчи ташкилотлар томонидан бажарилади. Мураккаб объектлар қурилишида съёмкалар ихтисослаштирилган ташкилотларни жалб қилган ҳолда бажарилиши мумкин.</t>
   </si>
   <si>
@@ -1220,9 +1120,6 @@
     <t>12.1.24 Бинолар ва иншооотлар ижроий съёмкасида лазер асбобларидан, нивелирлардан, горизонталларҳосил қилувчи асбоблардан ва бошқалардан фойдаланиш керак.</t>
   </si>
   <si>
-    <t>12.2. Краности йўлларини ижроий съёмкаси</t>
-  </si>
-  <si>
     <t>12.2.1 Краности йўлларининг ижроий съёмкасини бажариш қуйидаги иш турларини ўз ичига олади: рельсларнинг тўғричизиқлилигини, улар ўқлари орасидаги масофани, рельслар бош қисми отметкаларининг горизонтал текисликдан оғишини аниқлаш.</t>
   </si>
   <si>
@@ -1244,9 +1141,6 @@
     <t>12.2.7 Краности йўллари съёмкасиетарли даражадаги аниқликда, пролётнинг узунлиги 120-130 метргача бўлганда теодолит, нивелир ёки электрон тахеометр ёрдамида, пролётнинг узунлиги 100 метргача бўлганда эса лазерли асбоблар ёрдамида бажарилади.</t>
   </si>
   <si>
-    <t>12.3. Ерости муҳандислик тармоқларининг ижроий съёмкаси</t>
-  </si>
-  <si>
     <t>12.3.1 Ер ости муҳандислик тармоқларининг ижроий съёмкаси трасса участкасидаги траншея ва котлованлар кўмилишига қадар бажарилиши керак. Муҳандислик тармоқлари ва иншоотларнинг ижроий съёмкаси давлат геодезик тўрини планли ва баландлик белгиларига ёки қурилиш майдони ва жойнинг трассаолди йўл полосасининггеодезик режалаш асосигач нисбатан бажарилади. Планли съёмка топографик планда кўрсатилган , яқинда жойлашган мавжуд биноларга нисбатан бажарилишига йўл қўйилади.</t>
   </si>
   <si>
@@ -1319,9 +1213,6 @@
     <t>12.3.24 Ер ости тармоқлари жуда чуқурда ётқизилганда, уларни нуқталарининг баландлик ҳолати (отметкалари) металл рулетка (ёки лазер рулеткаси) билан ер юзаси сатҳида жойлашган, баландлик белгиси маълум бўлган турғун нуқтадан вертикал масофани ўлчаш натижалари бўйича ёки бошқа белгиларни олишнинг керакли аниқлигини таъминловчи усуллар билан олинади.</t>
   </si>
   <si>
-    <t>12.4. Ер ости муҳандислик тармоқлари ижроий съёмкасини расмийлаштириш</t>
-  </si>
-  <si>
     <t>12.4.1 Муҳандислик тармоқлари ижроий съёмкаси материаллари қайта ишлаб чиқилгандан сўнг, қурилиш лойиҳаси масштабидаги масштабда ижроий чизма ёки ижроий съёмка натижалари плани тузилади.</t>
   </si>
   <si>
@@ -1355,9 +1246,6 @@
     <t>12.4.11 Ётқизилган ер ости муҳандислик тармоқларига тузилган ижроий чизмаларнинг тўғрилиги ва ўз вақтида тақдим этилгани учун қурилиш (ихтисослаштирилган) ташкилотлари раҳбарлари ва ишларни амалга оширувчи ва ижроий чизмаларни тузиш учун масъул шахслар жавобгар ҳисобланадилар.</t>
   </si>
   <si>
-    <t>12.5. Қурилиш майдонининг оператив ижроий геодезик плани</t>
-  </si>
-  <si>
     <t>12.5.1 Агар қурилиш жараёнида лойиҳа ҳужжатларига узулуксиз равишда аниқликлар, қўшимчалар ва хакоза ўзгартиришлар киритиш зарурати туғилса қурилиш майдонининг оператив ижроий геодезик плани (ОИГП) тузиб борилади. Бу ҳолда қурилиш ишларининг ижрочиларини таъминловчи мунтазам равишда янгиланувчи ижроий техник ҳужжатлар комплектини юритиш зарур.</t>
   </si>
   <si>
@@ -1476,13 +1364,19 @@
   </si>
   <si>
     <t>15.2 Топографик-геодезик материалларни ДШК-ГАТ га белгиланган муддатларда тақдим этишга қурилиш-монтаж ташкилотининг раҳбари, қўрилишда геодезик ишларни ижрочилари зиммасига бевосита юклатилади.</t>
+  </si>
+  <si>
+    <t>parent_id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1498,14 +1392,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
@@ -1536,14 +1422,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1552,9 +1432,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1870,2695 +1747,2507 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B494ADD-72B1-4232-96CB-3512FC583EC8}">
-  <dimension ref="A1:D614"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D436" sqref="D436"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" customWidth="1"/>
-    <col min="4" max="4" width="184.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="184.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="9" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="2"/>
-      <c r="D5" t="s">
+    <row r="13" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="2"/>
-      <c r="D6" t="s">
+    <row r="14" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" t="s">
+    <row r="15" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="6"/>
-      <c r="D8" t="s">
+    <row r="16" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="6"/>
-      <c r="D9" t="s">
+    <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="6"/>
-      <c r="D10" t="s">
+    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="6"/>
-      <c r="D11" t="s">
+    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" t="s">
+    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" t="s">
+    <row r="21" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" t="s">
+    <row r="22" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" t="s">
+    <row r="23" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" t="s">
+    <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" t="s">
+    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" t="s">
+    <row r="26" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" t="s">
+    <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" t="s">
+    <row r="28" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" t="s">
+    <row r="29" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" t="s">
+    <row r="30" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" t="s">
+    <row r="31" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" t="s">
+    <row r="32" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" t="s">
+    <row r="34" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" t="s">
+    <row r="35" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" t="s">
+    <row r="36" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" t="s">
+    <row r="37" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" t="s">
+    <row r="38" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" t="s">
+    <row r="39" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="D32" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+    <row r="41" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" t="s">
+    <row r="43" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" t="s">
+    <row r="44" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" t="s">
+    <row r="45" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" t="s">
+    <row r="46" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" t="s">
+    <row r="47" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B39" s="7"/>
-      <c r="C39" s="6"/>
-      <c r="D39" t="s">
+    <row r="48" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="B48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" t="s">
+    <row r="49" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B41" s="7"/>
-      <c r="C41" s="6"/>
-      <c r="D41" t="s">
+    <row r="50" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B43" s="7"/>
-      <c r="C43" s="6"/>
-      <c r="D43" t="s">
+      <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" t="s">
+    <row r="52" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B45" s="7"/>
-      <c r="C45" s="6"/>
-      <c r="D45" t="s">
+    <row r="53" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="6"/>
-      <c r="D46" t="s">
+    <row r="54" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
+      <c r="B54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" t="s">
+    <row r="55" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
+      <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B48" s="7"/>
-      <c r="C48" s="6"/>
-      <c r="D48" t="s">
+    <row r="56" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" t="s">
+    <row r="57" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-      <c r="D50" t="s">
+    <row r="58" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+    <row r="59" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" t="s">
+    <row r="61" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
+      <c r="B61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" t="s">
+    <row r="62" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" t="s">
+    <row r="63" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" t="s">
+    <row r="64" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
-      <c r="D56" t="s">
+    <row r="65" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
-      <c r="D57" t="s">
+    <row r="66" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B58" s="7"/>
-      <c r="C58" s="6"/>
-      <c r="D58" t="s">
+    <row r="67" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-      <c r="D59" t="s">
+    <row r="68" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B60" s="7"/>
-      <c r="C60" s="6"/>
-      <c r="D60" t="s">
+    <row r="69" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B61" s="7"/>
-      <c r="C61" s="6"/>
-      <c r="D61" t="s">
+    <row r="70" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B62" s="7"/>
-      <c r="C62" s="6"/>
-      <c r="D62" t="s">
+    <row r="71" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B63" s="7"/>
-      <c r="C63" s="6"/>
-      <c r="D63" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B64" s="7"/>
-      <c r="C64" s="6"/>
-      <c r="D64" t="s">
+      <c r="B72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B65" s="7"/>
-      <c r="C65" s="6"/>
-      <c r="D65" t="s">
+    <row r="73" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B66" s="7"/>
-      <c r="C66" s="6"/>
-      <c r="D66" t="s">
+    <row r="74" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B67" s="7"/>
-      <c r="C67" s="6"/>
-      <c r="D67" t="s">
+    <row r="75" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+      <c r="B75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B68" s="7"/>
-      <c r="C68" s="6"/>
-      <c r="D68" t="s">
+    <row r="76" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B69" s="7"/>
-      <c r="C69" s="6"/>
-      <c r="D69" t="s">
+    <row r="77" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B70" s="7"/>
-      <c r="C70" s="6"/>
-      <c r="D70" t="s">
+    <row r="78" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B71" s="7"/>
-      <c r="C71" s="6"/>
-      <c r="D71" t="s">
+    <row r="79" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
+    <row r="80" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" t="s">
         <v>81</v>
       </c>
-      <c r="C72" t="s">
+    </row>
+    <row r="81" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="4"/>
+      <c r="B81" t="s">
         <v>82</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="82" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="4"/>
+      <c r="B82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B73" s="7"/>
-      <c r="C73" s="6"/>
-      <c r="D73" t="s">
+    <row r="83" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B74" s="7"/>
-      <c r="C74" s="6"/>
-      <c r="D74" t="s">
+    <row r="84" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B75" s="7"/>
-      <c r="C75" s="6"/>
-      <c r="D75" t="s">
+    <row r="85" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B76" s="7"/>
-      <c r="C76" s="6"/>
-      <c r="D76" t="s">
+    <row r="86" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B77" s="7"/>
-      <c r="C77" s="6"/>
-      <c r="D77" t="s">
+    <row r="87" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
+      <c r="B87" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B78" s="7"/>
-      <c r="C78" s="6"/>
-      <c r="D78" t="s">
+    <row r="88" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
+      <c r="B88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B79" s="7"/>
-      <c r="C79" s="6"/>
-      <c r="D79" t="s">
+    <row r="89" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B80" s="7"/>
-      <c r="C80" s="6"/>
-      <c r="D80" t="s">
+    <row r="90" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B81" s="7"/>
-      <c r="C81" s="6"/>
-      <c r="D81" t="s">
+    <row r="91" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B82" s="7"/>
-      <c r="C82" s="6"/>
-      <c r="D82" t="s">
+    <row r="92" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B83" s="7"/>
-      <c r="C83" s="6"/>
-      <c r="D83" t="s">
+    <row r="93" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B84" s="7"/>
-      <c r="C84" s="6"/>
-      <c r="D84" t="s">
+    <row r="94" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="4"/>
+      <c r="B94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B85" s="7"/>
-      <c r="C85" s="6"/>
-      <c r="D85" t="s">
+    <row r="95" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
+      <c r="B95" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B86" s="7"/>
-      <c r="C86" s="6"/>
-      <c r="D86" t="s">
+    <row r="96" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="4"/>
+      <c r="B96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B87" s="7"/>
-      <c r="C87" s="6"/>
-      <c r="D87" t="s">
+    <row r="97" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B88" s="7"/>
-      <c r="C88" s="6"/>
-      <c r="D88" t="s">
+    <row r="98" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B89" s="7"/>
-      <c r="C89" t="s">
+    <row r="99" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
         <v>100</v>
       </c>
-      <c r="D89" t="s">
+    </row>
+    <row r="100" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B90" s="7"/>
-      <c r="C90" s="6"/>
-      <c r="D90" t="s">
+    <row r="101" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B91" s="7"/>
-      <c r="C91" s="6"/>
-      <c r="D91" t="s">
+    <row r="102" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="92" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B92" s="7"/>
-      <c r="C92" s="6"/>
-      <c r="D92" t="s">
+    <row r="103" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B93" s="7"/>
-      <c r="C93" s="6"/>
-      <c r="D93" t="s">
+    <row r="104" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B94" s="7"/>
-      <c r="C94" s="6"/>
-      <c r="D94" t="s">
+    <row r="105" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B95" s="7"/>
-      <c r="C95" t="s">
+    <row r="106" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>107</v>
       </c>
-      <c r="D95" t="s">
+    </row>
+    <row r="107" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B96" s="7"/>
-      <c r="D96" t="s">
+    <row r="108" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D97" t="s">
+    <row r="109" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D98" t="s">
+    <row r="110" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D99" t="s">
+    <row r="111" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D100" t="s">
+    <row r="112" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D101" t="s">
+    <row r="113" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D102" t="s">
+    <row r="114" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D103" t="s">
+    <row r="115" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D104" t="s">
+    <row r="116" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D105" t="s">
+    <row r="117" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="106" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D106" t="s">
+    <row r="118" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C107" t="s">
+    <row r="119" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>120</v>
       </c>
-      <c r="D107" t="s">
+    </row>
+    <row r="120" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="108" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D108" t="s">
+    <row r="121" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D109" t="s">
+    <row r="122" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="110" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D110" t="s">
+      <c r="B122" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="111" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D111" t="s">
+    <row r="123" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="112" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D112" t="s">
+    <row r="124" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D113" t="s">
+    <row r="125" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="114" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D114" t="s">
+    <row r="126" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D115" t="s">
+    <row r="127" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D116" t="s">
+    <row r="128" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D117" t="s">
+    <row r="129" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="118" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D118" t="s">
+    <row r="130" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D119" t="s">
+    <row r="131" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D120" t="s">
+    <row r="132" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="121" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D121" t="s">
+    <row r="133" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="122" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
+    <row r="134" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>136</v>
       </c>
-      <c r="D122" t="s">
+    </row>
+    <row r="135" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="123" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D123" t="s">
+    <row r="136" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="124" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D124" t="s">
+    <row r="137" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="125" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D125" t="s">
+    <row r="138" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="126" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D126" t="s">
+    <row r="139" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="127" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D127" t="s">
+      <c r="B139" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D128" t="s">
+    <row r="140" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="129" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D129" t="s">
+    <row r="141" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D130" t="s">
+    <row r="142" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="131" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D131" t="s">
+    <row r="143" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D132" t="s">
+    <row r="144" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="133" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D133" t="s">
+    <row r="145" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="134" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D134" t="s">
+    <row r="146" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="135" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D135" t="s">
+    <row r="147" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="136" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D136" t="s">
+    <row r="148" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D137" t="s">
+    <row r="149" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="138" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D138" t="s">
+    <row r="150" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="139" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" t="s">
+    <row r="151" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>154</v>
       </c>
-      <c r="C139" t="s">
+    </row>
+    <row r="152" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>155</v>
       </c>
-      <c r="D139" t="s">
+    </row>
+    <row r="153" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D140" t="s">
+    <row r="154" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D141" t="s">
+    <row r="155" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="142" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D142" t="s">
+    <row r="156" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="143" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D143" t="s">
+    <row r="157" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="144" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D144" t="s">
+    <row r="158" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D145" t="s">
+    <row r="159" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="146" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D146" t="s">
+    <row r="160" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="147" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C147" t="s">
+    <row r="161" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>164</v>
       </c>
-      <c r="D147" t="s">
+    </row>
+    <row r="162" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="148" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D148" t="s">
+    <row r="163" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="149" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D149" t="s">
+    <row r="164" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C150" t="s">
+    <row r="165" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>168</v>
       </c>
-      <c r="D150" t="s">
+    </row>
+    <row r="166" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="151" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D151" t="s">
+    <row r="167" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="152" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D152" t="s">
+    <row r="168" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="153" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D153" t="s">
+    <row r="169" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="154" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D154" t="s">
+    <row r="170" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D155" t="s">
+    <row r="171" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="156" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D156" t="s">
+    <row r="172" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="157" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D157" t="s">
+    <row r="173" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="158" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C158" t="s">
+    <row r="174" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>177</v>
       </c>
-      <c r="D158" t="s">
+    </row>
+    <row r="175" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="159" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D159" t="s">
+    <row r="176" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="160" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D160" t="s">
+    <row r="177" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="161" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D161" t="s">
+    <row r="178" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="162" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D162" t="s">
+    <row r="179" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="163" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D163" t="s">
+      <c r="B179" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="164" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D164" t="s">
+    <row r="180" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="165" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C165" t="s">
+    <row r="181" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>185</v>
       </c>
-      <c r="D165" t="s">
+    </row>
+    <row r="182" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="166" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D166" t="s">
+    <row r="183" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="167" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D167" t="s">
+    <row r="184" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="168" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D168" t="s">
+    <row r="185" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="169" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D169" t="s">
+    <row r="186" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="170" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D170" t="s">
+    <row r="187" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="171" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C171" t="s">
+    <row r="188" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>192</v>
       </c>
-      <c r="D171" t="s">
+    </row>
+    <row r="189" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="172" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D172" t="s">
+    <row r="190" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="173" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D173" t="s">
+    <row r="191" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="174" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C174" t="s">
+    <row r="192" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>196</v>
       </c>
-      <c r="D174" t="s">
+    </row>
+    <row r="193" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="175" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D175" t="s">
+    <row r="194" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="176" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D176" t="s">
+    <row r="195" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="177" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D177" t="s">
+    <row r="196" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="178" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D178" t="s">
+    <row r="197" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B179" t="s">
+    <row r="198" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
         <v>202</v>
       </c>
-      <c r="C179" t="s">
+    </row>
+    <row r="199" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
         <v>203</v>
       </c>
-      <c r="D179" t="s">
+    </row>
+    <row r="200" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="180" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D180" t="s">
+    <row r="201" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="181" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D181" t="s">
+    <row r="202" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="182" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D182" t="s">
+    <row r="203" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="183" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D183" t="s">
+    <row r="204" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="184" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D184" t="s">
+    <row r="205" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="185" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D185" t="s">
+    <row r="206" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D186" t="s">
+    <row r="207" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="187" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D187" t="s">
+    <row r="208" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="188" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D188" t="s">
+    <row r="209" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="189" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D189" t="s">
+    <row r="210" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="190" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D190" t="s">
+    <row r="211" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="191" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C191" t="s">
+    <row r="212" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
         <v>216</v>
       </c>
-      <c r="D191" t="s">
+    </row>
+    <row r="213" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="192" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D192" t="s">
+    <row r="214" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="193" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D193" t="s">
+    <row r="215" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="194" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D194" t="s">
+    <row r="216" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="195" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D195" t="s">
+    <row r="217" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="196" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D196" t="s">
+    <row r="218" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="197" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D197" t="s">
+    <row r="219" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="198" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D198" t="s">
+    <row r="220" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="199" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D199" t="s">
+    <row r="221" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="200" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D200" t="s">
+    <row r="222" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="201" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D201" t="s">
+    <row r="223" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="202" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D202" t="s">
+    <row r="224" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="203" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C203" t="s">
+    <row r="225" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
         <v>229</v>
       </c>
-      <c r="D203" t="s">
+    </row>
+    <row r="226" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="204" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D204" t="s">
+    <row r="227" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="205" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D205" t="s">
+    <row r="228" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="206" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D206" t="s">
+    <row r="229" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="207" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D207" t="s">
+    <row r="230" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="208" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D208" t="s">
+    <row r="231" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="209" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C209" t="s">
+    <row r="232" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
         <v>236</v>
       </c>
-      <c r="D209" t="s">
+    </row>
+    <row r="233" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="210" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D210" t="s">
+    <row r="234" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="211" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D211" t="s">
+    <row r="235" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="212" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D212" t="s">
+    <row r="236" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="213" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D213" t="s">
+    <row r="237" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="214" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D214" t="s">
+    <row r="238" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="215" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D215" t="s">
+    <row r="239" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="216" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D216" t="s">
+    <row r="240" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="217" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D217" t="s">
+    <row r="241" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="218" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D218" t="s">
+    <row r="242" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="219" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D219" t="s">
+    <row r="243" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="220" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D220" t="s">
+    <row r="244" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="221" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D221" t="s">
+    <row r="245" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="222" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D222" t="s">
+    <row r="246" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="223" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D223" t="s">
+    <row r="247" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="224" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D224" t="s">
+    <row r="248" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="225" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D225" t="s">
+    <row r="249" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="226" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C226" t="s">
+    <row r="250" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
         <v>254</v>
       </c>
-      <c r="D226" t="s">
+    </row>
+    <row r="251" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="227" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D227" t="s">
+    <row r="252" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="228" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D228" t="s">
+    <row r="253" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="229" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D229" t="s">
+    <row r="254" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="230" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D230" t="s">
+    <row r="255" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="231" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D231" t="s">
+    <row r="256" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="232" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D232" t="s">
+    <row r="257" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="233" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D233" t="s">
+    <row r="258" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="234" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D234" t="s">
+    <row r="259" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="235" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D235" t="s">
+    <row r="260" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="236" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D236" t="s">
+    <row r="261" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="237" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D237" t="s">
+    <row r="262" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="238" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D238" t="s">
+    <row r="263" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="239" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D239" t="s">
+    <row r="264" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="240" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D240" t="s">
+    <row r="265" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="241" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D241" t="s">
+      <c r="B265" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="242" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C242" t="s">
+    <row r="266" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
         <v>271</v>
       </c>
-      <c r="D242" t="s">
+    </row>
+    <row r="267" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="243" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D243" t="s">
+    <row r="268" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="244" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D244" t="s">
+    <row r="269" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="245" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D245" t="s">
+    <row r="270" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="246" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D246" t="s">
+    <row r="271" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="247" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D247" t="s">
+    <row r="272" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="248" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D248" t="s">
+    <row r="273" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="249" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D249" t="s">
+    <row r="274" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="250" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D250" t="s">
+    <row r="275" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="251" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D251" t="s">
+    <row r="276" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="252" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D252" t="s">
+    <row r="277" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="253" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D253" t="s">
+    <row r="278" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="254" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D254" t="s">
+    <row r="279" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="255" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D255" t="s">
+    <row r="280" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="256" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C256" t="s">
+    <row r="281" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
         <v>286</v>
       </c>
-      <c r="D256" t="s">
+    </row>
+    <row r="282" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="257" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D257" t="s">
+    <row r="283" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="258" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D258" t="s">
+    <row r="284" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="259" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D259" t="s">
+    <row r="285" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="260" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D260" t="s">
+    <row r="286" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="261" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D261" t="s">
+    <row r="287" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="262" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D262" t="s">
+    <row r="288" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="263" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D263" t="s">
+    <row r="289" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="264" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D264" t="s">
+    <row r="290" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="265" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B265" t="s">
+    <row r="291" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
         <v>296</v>
       </c>
-      <c r="C265" t="s">
+    </row>
+    <row r="292" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
         <v>297</v>
       </c>
-      <c r="D265" t="s">
+    </row>
+    <row r="293" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="266" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D266" t="s">
+    <row r="294" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="267" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D267" t="s">
+    <row r="295" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="268" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D268" t="s">
+      <c r="B295" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="269" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D269" t="s">
+    <row r="296" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="270" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D270" t="s">
+    <row r="297" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="271" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D271" t="s">
+    <row r="298" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="272" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D272" t="s">
+    <row r="299" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="273" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D273" t="s">
+    <row r="300" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="274" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D274" t="s">
+    <row r="301" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D275" t="s">
+    <row r="302" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="276" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D276" t="s">
+    <row r="303" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="277" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D277" t="s">
+    <row r="304" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="278" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D278" t="s">
+    <row r="305" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="279" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D279" t="s">
+    <row r="306" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="280" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C280" t="s">
+    <row r="307" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
         <v>313</v>
       </c>
-      <c r="D280" t="s">
+    </row>
+    <row r="308" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="281" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D281" t="s">
+    <row r="309" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="282" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D282" t="s">
+    <row r="310" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="283" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D283" t="s">
+    <row r="311" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="284" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D284" t="s">
+    <row r="312" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="285" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D285" t="s">
+    <row r="313" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="286" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D286" t="s">
+    <row r="314" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="287" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D287" t="s">
+    <row r="315" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="288" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D288" t="s">
+    <row r="316" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="289" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D289" t="s">
+    <row r="317" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="290" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D290" t="s">
+    <row r="318" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="291" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D291" t="s">
+    <row r="319" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="292" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D292" t="s">
+    <row r="320" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="293" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D293" t="s">
+    <row r="321" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="294" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D294" t="s">
+    <row r="322" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="295" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B295" t="s">
+    <row r="323" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
         <v>329</v>
       </c>
-      <c r="C295" t="s">
+    </row>
+    <row r="324" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
         <v>330</v>
       </c>
-      <c r="D295" t="s">
+    </row>
+    <row r="325" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="296" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D296" t="s">
+    <row r="326" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="297" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D297" t="s">
+    <row r="327" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="298" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D298" t="s">
+    <row r="328" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="299" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D299" t="s">
+    <row r="329" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="300" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D300" t="s">
+    <row r="330" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="301" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D301" t="s">
+    <row r="331" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="302" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D302" t="s">
+    <row r="332" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="303" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D303" t="s">
+      <c r="B332" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="304" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D304" t="s">
+    <row r="333" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="305" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D305" t="s">
+    <row r="334" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="306" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D306" t="s">
+    <row r="335" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="307" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D307" t="s">
+    <row r="336" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="308" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D308" t="s">
+    <row r="337" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="309" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D309" t="s">
+    <row r="338" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B338" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="310" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C310" t="s">
+    <row r="339" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B339" t="s">
         <v>346</v>
       </c>
-      <c r="D310" t="s">
+    </row>
+    <row r="340" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B340" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="311" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D311" t="s">
+    <row r="341" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="312" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D312" t="s">
+    <row r="342" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B342" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="313" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D313" t="s">
+    <row r="343" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B343" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="314" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D314" t="s">
+    <row r="344" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="315" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D315" t="s">
+    <row r="345" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="316" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D316" t="s">
+    <row r="346" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B346" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="317" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D317" t="s">
+    <row r="347" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B347" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="318" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D318" t="s">
+    <row r="348" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="319" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D319" t="s">
+    <row r="349" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B349" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="320" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D320" t="s">
+    <row r="350" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B350" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="321" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D321" t="s">
+    <row r="351" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B351" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="322" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D322" t="s">
+    <row r="352" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B352" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="323" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D323" t="s">
+    <row r="353" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B353" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="324" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D324" t="s">
+    <row r="354" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B354" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="325" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D325" t="s">
+    <row r="355" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B355" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="326" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D326" t="s">
+    <row r="356" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B356" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="327" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C327" t="s">
+    <row r="357" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B357" t="s">
         <v>364</v>
       </c>
-      <c r="D327" t="s">
+    </row>
+    <row r="358" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B358" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="328" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D328" t="s">
+    <row r="359" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="329" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D329" t="s">
+    <row r="360" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B360" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="330" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D330" t="s">
+    <row r="361" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B361" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="331" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D331" t="s">
+    <row r="362" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B362" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="332" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B332" t="s">
+    <row r="363" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B363" t="s">
         <v>370</v>
       </c>
-      <c r="C332" t="s">
+    </row>
+    <row r="364" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B364" t="s">
         <v>371</v>
       </c>
-      <c r="D332" t="s">
+    </row>
+    <row r="365" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B365" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="333" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D333" t="s">
+    <row r="366" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B366" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="334" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D334" t="s">
+    <row r="367" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B367" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="335" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D335" t="s">
+    <row r="368" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B368" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="336" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D336" t="s">
+    <row r="369" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B369" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="337" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D337" t="s">
+    <row r="370" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B370" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="338" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D338" t="s">
+    <row r="371" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B371" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="339" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D339" t="s">
+    <row r="372" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="340" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D340" t="s">
+    <row r="373" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B373" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="341" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D341" t="s">
+    <row r="374" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B374" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="342" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D342" t="s">
+    <row r="375" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B375" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="343" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D343" t="s">
+    <row r="376" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B376" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="344" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D344" t="s">
+    <row r="377" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B377" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="345" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D345" t="s">
+    <row r="378" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B378" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="346" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D346" t="s">
+    <row r="379" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B379" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="347" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D347" t="s">
+    <row r="380" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B380" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="348" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D348" t="s">
+    <row r="381" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B381" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="349" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D349" t="s">
+    <row r="382" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B382" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="350" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D350" t="s">
+    <row r="383" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B383" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="351" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D351" t="s">
+    <row r="384" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B384" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="352" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D352" t="s">
+    <row r="385" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B385" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="353" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D353" t="s">
+    <row r="386" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B386" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="354" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D354" t="s">
+    <row r="387" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B387" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="355" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D355" t="s">
+    <row r="388" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B388" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="356" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C356" t="s">
+    <row r="389" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B389" t="s">
         <v>396</v>
       </c>
-      <c r="D356" t="s">
+    </row>
+    <row r="390" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B390" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="357" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D357" t="s">
+    <row r="391" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B391" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="358" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D358" t="s">
+    <row r="392" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B392" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="359" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D359" t="s">
+    <row r="393" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B393" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="360" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D360" t="s">
+    <row r="394" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B394" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="361" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D361" t="s">
+    <row r="395" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B395" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="362" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D362" t="s">
+    <row r="396" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B396" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="363" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C363" t="s">
+    <row r="397" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B397" t="s">
         <v>404</v>
       </c>
-      <c r="D363" t="s">
+    </row>
+    <row r="398" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B398" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="364" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D364" t="s">
+    <row r="399" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B399" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="365" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D365" t="s">
+    <row r="400" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B400" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="366" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D366" t="s">
+    <row r="401" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B401" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="367" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D367" t="s">
+    <row r="402" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B402" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="368" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D368" t="s">
+    <row r="403" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B403" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="369" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D369" t="s">
+    <row r="404" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B404" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="370" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D370" t="s">
+    <row r="405" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B405" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="371" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D371" t="s">
+    <row r="406" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B406" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="372" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D372" t="s">
+    <row r="407" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="373" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D373" t="s">
+      <c r="B407" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="374" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D374" t="s">
+    <row r="408" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B408" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="375" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D375" t="s">
+    <row r="409" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B409" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="376" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D376" t="s">
+    <row r="410" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B410" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="377" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D377" t="s">
+    <row r="411" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B411" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="378" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D378" t="s">
+    <row r="412" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B412" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="379" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D379" t="s">
+    <row r="413" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B413" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="380" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D380" t="s">
+    <row r="414" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B414" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="381" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D381" t="s">
+    <row r="415" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B415" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="382" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D382" t="s">
+    <row r="416" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B416" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="383" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D383" t="s">
+    <row r="417" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B417" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="384" spans="4:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D384" t="s">
+    <row r="418" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="385" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D385" t="s">
+      <c r="B418" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="386" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D386" t="s">
+    <row r="419" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B419" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="387" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C387" t="s">
+    <row r="420" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B420" t="s">
         <v>429</v>
       </c>
-      <c r="D387" t="s">
+    </row>
+    <row r="421" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B421" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="388" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D388" t="s">
+    <row r="422" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B422" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="389" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D389" t="s">
+    <row r="423" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B423" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="390" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D390" t="s">
+    <row r="424" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B424" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="391" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D391" t="s">
+    <row r="425" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B425" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="392" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D392" t="s">
+    <row r="426" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B426" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="393" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D393" t="s">
+    <row r="427" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B427" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="394" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D394" t="s">
+    <row r="428" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B428" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="395" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D395" t="s">
+    <row r="429" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B429" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="396" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D396" t="s">
+    <row r="430" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B430" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="397" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D397" t="s">
+    <row r="431" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B431" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="398" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C398" t="s">
+    <row r="432" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B432" t="s">
         <v>441</v>
       </c>
-      <c r="D398" t="s">
+    </row>
+    <row r="433" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="399" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D399" t="s">
+      <c r="B433" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="400" spans="3:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D400" t="s">
+    <row r="434" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B434" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="401" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D401" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="402" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D402" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="403" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D403" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="404" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D404" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="405" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D405" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="406" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D406" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="407" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B407" t="s">
-        <v>451</v>
-      </c>
-      <c r="D407" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="408" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D408" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="409" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D409" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="410" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D410" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="411" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D411" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="412" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D412" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="413" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D413" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="414" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D414" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="415" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D415" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="416" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D416" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="417" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D417" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="418" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B418" t="s">
-        <v>463</v>
-      </c>
-      <c r="D418" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="419" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D419" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="420" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D420" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="421" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D421" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="422" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D422" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="423" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D423" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="424" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D424" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="425" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D425" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="426" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D426" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="427" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D427" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="428" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D428" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="429" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D429" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="430" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D430" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="431" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D431" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="432" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D432" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="433" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B433" t="s">
-        <v>479</v>
-      </c>
-      <c r="D433" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="434" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D434" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="435" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" spans="2:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/storage/excel/shnq/1.xlsx
+++ b/storage/excel/shnq/1.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="435">
   <si>
     <t>Мазкур қурилишда геодезик ишлар бўйича меъёрлар ва қоидалар янги бинолар ва иншооотлар қурилишида ,шу билан бир қаторда бошқа қурилиш объектларидаги кенгайтириш,реконструкциялаш ва амалда ишлаб турган корхоналарни,бинолар ва иншоотларни техник жиҳатдан қайта жиҳозлаш ишларидаги қурилиш ишлари ва қабул қилиш ишларидаги бажариладиган геодезик ишларнинг тартибини белгилайди. Қурилиш объектларининг конструктив хусусиятлари ва мақсадига боғлиқ равишда, бошқа шаҳарсозлик меъёрлари ва қоидаларида, қурилишда геометрик параметрлар аниқлигини таъминловчи системаларда, давлат стандартларида, идоравий норматив ҳужжатларда ва белгиланган тартибда келишилган ва тасдиқланган давлат назорати органлари ҳужжатларида келтирилган талабларга риоя қилиниши зарур. Шунингдек, лойиҳа ҳужжатларида кўзда тутилган қўшимча талабларга ҳам риоя қилиш зарур.</t>
   </si>
@@ -124,9 +124,6 @@
     <t>ГИБЛ - геодезик ишларни бажариш лойиҳаси; ИБЛ - ишларни бажариш лойиҳаси; ҚТЭЛ - қурилишни ташкил этиш лойиҳаси; СНС - спутникавий навигация системаси; КҲЯС - конструкторлик ҳужжатларнинг ягона системаси; ҚЛҲС - қурилиш учун лойиҳавий ҳужжатлар системаси; ГТС - газ тақсимлаш станцияси; ТП - тақсимлаш пункти; ТП - трансформатор пункти; ҚМОИГП - қурилиш майдонинг оператив ижроий геодезик плани;</t>
   </si>
   <si>
-    <t>4. УМУМИЙ МАЪЛУМОТЛАР</t>
-  </si>
-  <si>
     <t>4.1 Ҳар қандай объектни қуриш жараёнидаамалга ошириладиган геодезик ишларни,шаҳарсозлик меъёрлари ва қоидалари ва давлат стандартлари талаблари доирасида, қурилиш объектини жойлаштириш ва қуришда уларнинг геометрик параметрларини лойиҳа ҳужжатларига мос равишда таъминлайдиган ҳажмда ва аниқликда бажариш керак.</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>4.18 Режалаш ўқлари, монтаж (ориентир) нишонлари бинонинг ташқи ёки ички тўрлари нуқталарига нисбатан белгиланиши керак. Режалаш ўқлари, монтаж (ориентир) нишонлари, маяклар, уларнинг жойлашган ўрни, маҳкамлаш усуллари ИБЛ ва ГИБЛда кўрсатилган бўлиши керак.</t>
   </si>
   <si>
-    <t>5. ГЕОДЕЗИК ИШЛАРНИ БАЖАРИШ ЛОЙИҲАСИ</t>
-  </si>
-  <si>
     <t>5.1 ГИБЛ қурилишни минимал меҳнат ва материал харажатлар билан таъминловчи геодезик ишларнинг мазмуни, ҳажми, усуллари, аниқлиги, муддатлари ва нархини аниқлайди.</t>
   </si>
   <si>
@@ -247,9 +241,6 @@
     <t>5.21 Хулосада ГИБЛ материалларини ишлаб чиқаришга тақдим этиш тартиби баён қилинади, геодезик асбоблар ва инструментларни текшириш ва созлаш бўйича тавсиялар келтирилади, тавсия қилинадиган ижроий схемалар намуналарининг альбомиилова қилинади ва ГИБЛни ишлаб чиқаришга жорий қилишнинг муаллифлик назоратини амалга оширувчи ташкилотнинг номи кўрсатилади.</t>
   </si>
   <si>
-    <t>6. ҚУРИЛИШ УЧУН ГЕОДЕЗИК РЕЖАЛАШ АСОСИ</t>
-  </si>
-  <si>
     <t>6.1.1 Қурилиш учун геодезик режалаш асосини, бино (иншооот)нинг жойдаги ўрнини аниқловчи ва кам харажат ,керакли аниқликда, қурилиш жараёнида кейинчалик бўладиган қурилишлар ва ўлчашларни бажаришни таъминловчи белгилар билан маҳкамланган, геодезик пунктлар кўринишида барпо этиш керак.</t>
   </si>
   <si>
@@ -400,9 +391,6 @@
     <t>6.4.15 Бинонинг бош ва асосий ўқларини жойга кўчириш ишлари тугаллангандан сўнг, қурилиш учун режалаш асосини топшириш-қабул қилиш далолатномаси (10а,10б-иловалар) ва геодезик режалаш тўрларини барпо этиш схемалари тузилади (3-илова).</t>
   </si>
   <si>
-    <t>7. ҚУРИЛИШ ЖАРАЁНИДАГИ РЕЖАЛАШ ИШЛАРИГА БЎЛГАН УМУМИЙ ТАЛАБЛАР</t>
-  </si>
-  <si>
     <t>7.1 Қурилиш жараёнида режалаш ишлари пудратчи томонидан бажарилади вабиноларнинг (иншоотларнинг) қисмлари ва конструктив элементларининг планли ва баландлик ҳолатини лойиҳа ҳужжатларига мослигини аниқловчи ўқлар ва белгиларни, берилган аниқликда геодезик режалаш асоси пунктларидан жойга кўчиришни таъминлаши керак.</t>
   </si>
   <si>
@@ -454,9 +442,6 @@
     <t>7.17 Бино (иншооот)нинг алоҳида қисмларини битта қурилиш- монтаж ташкилотидан иккинчисига топширишда, кейинги геодезик ишларни бажариш учун зарур бўлган ўқларни маҳкамловчи белгилар, отметкалар, ориентирлар ва ижроий съёмка материаллари 10б- мажбурий иловага биноан далолатнома бўйича топширилиши керак.</t>
   </si>
   <si>
-    <t>8. БИНОЛАРНИНГ ПОЙДЕВОРЛАРИ ВА ЕР ОСТИ ҚИСМЛАРИНИ ҚУРИШДА ГЕОДЕЗИК ИШЛАРНИ БАЖАРИШ</t>
-  </si>
-  <si>
     <t>8.1.1 Режалаш ишларини оптикавий ва лазерли асбоблар – нивелирлар, шовунлар, вертикал – горизонтал текисликларни шакллантирувчиқурилмалар ва электрон тахеометрлар ёрдамида амалга ошириш керак.</t>
   </si>
   <si>
@@ -577,9 +562,6 @@
     <t>8.7.5 Бинонинг ертўла (цокол) қисмини йиғма плитали том қопламасининг баландлик съёмкаси, ҳар бир плитанинг тўртта бурчаги бўйича, монолит плитали том қопламасида эса – ёпиладиган хонанинг бурчаклари ва маркази бўйича амалга оширилади.</t>
   </si>
   <si>
-    <t>9. БИНО ВА ИНШОООТЛАРНИНГ ЕР УСТИ ҚИСМИНИ ҚУРИШДА ГЕОДЕЗИК ИШЛАРНИ БАЖАРИШ</t>
-  </si>
-  <si>
     <t>9.1.1 Бино (иншооот)нинг ички режалаш тўри бинодаги ўқлар ва баландлик белгилари кўринишида тузилади ва улар монтаж горизонтида батафсил режалаш ишларини ҳамда ижроий съёмкаларни бажаришга хизмат қилади.</t>
   </si>
   <si>
@@ -838,9 +820,6 @@
     <t>9.7.9 Юқори аниқликдаги электрон тахеометрларни қўллаш, геодезик режалаш ишлар комплексини ва оболочкаларни монтаж қилишда, ижроий съёмкани автоматлаштиришни таъминлайди.</t>
   </si>
   <si>
-    <t>10. БИНОЛАР ГЕОМЕТРИК ПАРАМЕТРЛАРИНИНГ АНИҚЛИГИНИ ГЕОДЕЗИК НАЗОРАТИ</t>
-  </si>
-  <si>
     <t>10.1.1 Бинолар (иншооотлар)ни қуриш ёки муҳандислик тармоқларини ётқизиш жараёнида, қурилиш – монтаж ташкилоти (бош пудратчи, субпудратчи) ишлаб чиқаришда сифат назоратининг мажбурий таркибий қисми бўлган, бинолар (иншооотлар) геометрик параметрларининг аниқлик назоратини ўтказиши керак.</t>
   </si>
   <si>
@@ -931,9 +910,6 @@
     <t>10.2.15 Биноларнинг ер устки қисмини ўрнатишаниқлигини назорати планда ва баландлик бўйича амалга оширилади. Планда монтаж қилинган элементлар орасидаги масофа ўлчанади ва элементлар орасидаги масофани ва уларнинг ўқларга блғланганини ҳисобга олган ҳолда, йўл қўярли оғишлар ҳисоблаб чиқилади. Биноларнинг ер устки қисмини ташқи қисмларини қуриш аниқлигининг назоратини амалга ошириш усуллари ва методлари 8-бўлимда келтирилган.</t>
   </si>
   <si>
-    <t>11. МУҲАНДИСЛИК ТАРМОҚЛАРИ ВА ЕРОСТИ МУҲАНДИСЛИК КОММУНИКАЦИЯЛАРИ ТРАССАЛАРИНИ ЁТҚИЗИШДАГИ ГЕОДЕЗИК ИШЛАР</t>
-  </si>
-  <si>
     <t>11.1.1 Муҳандислик тармоқларини ётқизишнинг геометрик аниқлигини таъминлаш учун уларнинг трассалари бўйлаб планли ва баландлик бўйича режалаш асослари пунктлари маҳкамланади ва уларнинг координаталари керакли аниқликда, 6-бўлим, 2,3 -жадваллар талабларига асосан аниқланади.</t>
   </si>
   <si>
@@ -1045,9 +1021,6 @@
     <t>11.3.5 Лазер асбобини траншея тубида ўрнатиш учун, асбоб баландлигини 30дан 200 сантиметргача ўзгартираоладиган штангали штатив ёки консолли штатив қўлланилади. Асбобни қувур ичида маҳкамлаш учун тиргакли тагликдан фойдаланилади.</t>
   </si>
   <si>
-    <t>12. ГЕОДЕЗИК ИЖРОИЙ СЪЁМКАЛАР</t>
-  </si>
-  <si>
     <t>12.1.1 Ижроий геодезик съёмкалар қурилиш –монтаж ишларини амалга оширувчи ташкилотлар томонидан бажарилади. Мураккаб объектлар қурилишида съёмкалар ихтисослаштирилган ташкилотларни жалб қилган ҳолда бажарилиши мумкин.</t>
   </si>
   <si>
@@ -1273,9 +1246,6 @@
     <t>12.5.9 ОИГПнинг ёрдамчи тушунтирувчи ҳужжатлари қуйидагиларни ўз ичига олади: - геодезик асос пунктларининг координаталар ва баландликлар каталоги; шу жумладан қурилиш тўрлари,биноларнинг ўқлари ва характерли нуқталари; - йўл трассалари ва бошқа чизқли типдаги иншоотлар бурилиш бурчакларининг, тўғри ва эгри чизиқларининг қайдномалари; - биноларни режалашни ва ижроий съёмкаларини ҳисобга олиш қайдномалари; ШНҚ 3.01.03-19 72 -бет. - геодезик пунктлар абриси, шу жумладан ер ости муҳандислик иншоотлари, уларнинг турлари бўйича (водопровод, канализация, газ ва б.); - қурилиш майдонлари характерли жойларининг қирқимлари ва профиллари; - иншоотларни режалаш ва ижрий съёмкалар бўйича ҳисоблаш материаллари, тушунтириш хатлари ва далолатномалари.</t>
   </si>
   <si>
-    <t>13. БИНО ВА ИНШОООТЛАР ДЕФОРМАЦИЯЛАРИНИ ГЕОДЕЗИК КУЗАТИШЛАР</t>
-  </si>
-  <si>
     <t>13.1 Бино ва иншооотлар жойини ўзгартириши ва деформацияларининг геодезик кузатувлари (қурилиш объектларининг геодезик мониторинги) қуйидаги мақсадларда олиб борилади: - уларнинг абсалют ва нисбий деформациялари миқдорини ҳисоблаш усулларини экспериментал йўл билан текшириш; - турли турдаги замин грунтлари ва бино ва иншооотлар учун деформацияларнинг йўл қўйиладиган чегаравий чекли миқдорларини аниқлаш; - экспулатациядаги бино ва иншооотларда деформациялар рўй беришининг сабаблари ва хавфлилик даражасини аниқлаш, юз берган деформацияларни бартараф қилиш бўйича ўз вақтида чора- тадбирлар қўриш учун рақамли ва геометрик маълумотларни олиш; - муҳим аҳамиятга эга бўлган бинолар, минорасимон конструкцияларни жойдаги ҳолати ва геометрияси барқарорлигининг геодезик мониторингини лойиҳа ташкилотларининг идоравий кўрсатмалари ва йўриқномалари талаблари бўйича бажариш.</t>
   </si>
   <si>
@@ -1309,9 +1279,6 @@
     <t>13.11 Бино ва иншооотлар силжиши ва деформацияларини ўлчаш натижаларининг ҳар бир цикли бўйича оралиқ ёки якуний техник ҳисобот тузиш керак. Биринчи ва якуний цикллар ҳисоботига қуйидагилар киритилиши керак: - ушбу объектда деформацияларни ўлчаш мақсадининг қисқача баёни; - замин геологик тузилишининг, грунтларнинг физик-механик хусусиятларининг тавсифи ва пойдеворлар остидаги заминлар муҳандислик – геологик қирқимлари; - бинонинг ва унинг пойдеворини конструктив хусусиятлари; - ўрнатилган реперлар, таянч ва ориентир белгилари, деформация маркалари, дарзликлар ривожланишини ўлчаш қурилмалари конструкцияларининг баёни; - таянч ва деформацион белгиларининг жойлашиш схемалари; - қўлланилган ўлчаш усуллари; - деформацион белгиларнинг координаталари ва силжишларининг қайдномалари; - вертикал, горизонтал силжишлар, оғишлар, дарзликларнинг замонда ривожланиши, заминга босимнинг ортиши графиклари ва эпюралари; - деформациялар пайдо бўлиш имконини туғдирадиган омиллар рўйхати; - ўлчашлар натижалари тўғрисида хулосалар. Оралиқ ҳисоботларга геодезик белгиларининг жойлашиш схемалари, деформацион белгиларининг координаталари ва силжишларининг қайдномалари, деформациялар грфиги, жорий хулосалар ва таклифлар киритилади.</t>
   </si>
   <si>
-    <t>14. ҚУРИЛИШДА ГЕОДЕЗИК ИШЛАРИНИ БАЖАРИШДА МЕҲНАТ МУҲОФАЗАСИ</t>
-  </si>
-  <si>
     <t>14.1 Қурилиш объектида геодезия ишларини бажаришда тегишли равишда ишлаб чиқилган ва тасдиқланаган идоравий йўриқномаларда келтирилган меҳнат муҳофазаси қоидаларига риоя қилиш керак. ГИБЛда геодезия ишларида хавфсиз меҳнат шароитини таъминлаш бўйича чоратадбирлар кўзда тутилган бўлиши керак.</t>
   </si>
   <si>
@@ -1355,9 +1322,6 @@
   </si>
   <si>
     <t>14.15 Меҳнат муҳофазасини таъминлаш бўйича чора- тадбирларни бажариш қурилиш ташкилоти раҳбарларининг мажбуриятларига киради. Қурилиш ташкилоти раҳбарлари ҳар йили геодезистларнинг техника хавфсизлиги қоидаларини бўйича билимларини текширишни ташкил қилиши керак.</t>
-  </si>
-  <si>
-    <t>15. МУҲАНДИСЛИК ИЗЛАНИШЛАРИ МАЪЛУМОТЛАРИНИ ДАВЛАТ ШАҲАРСОЗЛИК КАДАСТРИ ГЕОАХБОРОТ ТИЗИМИГА(ДШК- ГАТ) ЭКСПОРТЛАШ</t>
   </si>
   <si>
     <t>15.1 “Қурилишда мухандислик қидирувлари,геоахборот ва шаҳарсозлик кадастри давлат институтини ташкил этиш тўғрисида”ги Ўзбекистон Республикаси Вазирлар Махкамасининг 06.02.06 й. 14-сон қарорига асосан бино ва иншоотларни геометрик парамерларининг аниқликлари назоратининг барча материаллари,ҳамда ижроий съёмка материаллари&lt;&gt; DUK электрон фондига файллар ёки калькаларда нусхалар кўринишида тақдим этилиши керак,уларЎзбекистон Республикаси геофондига, кейинчалик “ Шаҳарсозлик фолиятини мониторинги” ДШК-ГАТ тизим остига киритилиши учун зарур.</t>
@@ -1376,7 +1340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1392,14 +1356,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1422,7 +1378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1430,9 +1386,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1750,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B614"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A433" sqref="A433:A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,10 +1716,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1793,2279 +1746,3444 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3</v>
+      </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
       <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3</v>
+      </c>
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
       <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
         <v>72</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
-      <c r="B87" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
-      <c r="B88" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
-      <c r="B89" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
-      <c r="B94" t="s">
+    <row r="97" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
-      <c r="B95" t="s">
+    <row r="98" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
-      <c r="B96" t="s">
+    <row r="99" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="100" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="101" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="102" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="103" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="104" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="105" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="106" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="107" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="108" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="109" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="110" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="111" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+    <row r="112" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="113" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+    <row r="114" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="115" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="116" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="117" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="118" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="119" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="120" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="121" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="122" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>7</v>
+      </c>
+      <c r="B122" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="123" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+    <row r="124" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="125" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
         <v>123</v>
       </c>
-      <c r="B122" t="s">
+    </row>
+    <row r="126" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+    <row r="127" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+    <row r="128" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="129" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+    <row r="130" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+    <row r="131" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+    <row r="132" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+    <row r="133" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>7</v>
+      </c>
+      <c r="B133" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+    <row r="134" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+    <row r="135" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+    <row r="136" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+    <row r="137" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+    <row r="138" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="139" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+    <row r="140" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
+    <row r="141" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
+    <row r="142" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="143" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
         <v>141</v>
       </c>
-      <c r="B139" t="s">
+    </row>
+    <row r="144" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
+    <row r="145" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
+    <row r="146" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
+    <row r="147" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
+    <row r="148" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
+    <row r="149" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
+    <row r="150" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
+    <row r="151" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
+    <row r="152" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
+    <row r="153" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
+    <row r="154" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+    <row r="155" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+    <row r="156" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+    <row r="157" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
+    <row r="158" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
+    <row r="159" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
+    <row r="160" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
+    <row r="161" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
+    <row r="162" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+    <row r="163" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+    <row r="164" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
+    <row r="165" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
+    <row r="166" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
+    <row r="167" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
+    <row r="168" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+    <row r="169" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+    <row r="170" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+    <row r="171" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+    <row r="172" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>8</v>
+      </c>
+      <c r="B172" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
+    <row r="173" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>8</v>
+      </c>
+      <c r="B173" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
+    <row r="174" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+    <row r="175" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>8</v>
+      </c>
+      <c r="B175" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+    <row r="176" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+    <row r="177" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>8</v>
+      </c>
+      <c r="B177" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+    <row r="178" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>8</v>
+      </c>
+      <c r="B178" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
+    <row r="179" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
+    <row r="180" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+    <row r="181" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>9</v>
+      </c>
+      <c r="B181" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+    <row r="182" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>9</v>
+      </c>
+      <c r="B182" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+    <row r="183" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>9</v>
+      </c>
+      <c r="B183" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="184" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>9</v>
+      </c>
+      <c r="B184" t="s">
         <v>182</v>
       </c>
-      <c r="B179" t="s">
+    </row>
+    <row r="185" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>9</v>
+      </c>
+      <c r="B185" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+    <row r="186" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
+    <row r="187" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>9</v>
+      </c>
+      <c r="B187" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+    <row r="188" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>9</v>
+      </c>
+      <c r="B188" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
+    <row r="189" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>9</v>
+      </c>
+      <c r="B189" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+    <row r="190" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>9</v>
+      </c>
+      <c r="B190" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+    <row r="191" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>9</v>
+      </c>
+      <c r="B191" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+    <row r="192" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>9</v>
+      </c>
+      <c r="B192" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
+    <row r="193" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>9</v>
+      </c>
+      <c r="B193" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+    <row r="194" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
+    <row r="195" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>9</v>
+      </c>
+      <c r="B195" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+    <row r="196" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>9</v>
+      </c>
+      <c r="B196" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+    <row r="197" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>9</v>
+      </c>
+      <c r="B197" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
+    <row r="198" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="193" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" t="s">
+    <row r="199" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" t="s">
+    <row r="200" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>9</v>
+      </c>
+      <c r="B200" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" t="s">
+    <row r="201" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>9</v>
+      </c>
+      <c r="B201" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" t="s">
+    <row r="202" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>9</v>
+      </c>
+      <c r="B202" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" t="s">
+    <row r="203" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>9</v>
+      </c>
+      <c r="B203" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" t="s">
+    <row r="204" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>9</v>
+      </c>
+      <c r="B204" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" t="s">
+    <row r="205" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>9</v>
+      </c>
+      <c r="B205" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" t="s">
+    <row r="206" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>9</v>
+      </c>
+      <c r="B206" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" t="s">
+    <row r="207" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>9</v>
+      </c>
+      <c r="B207" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="202" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" t="s">
+    <row r="208" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>9</v>
+      </c>
+      <c r="B208" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="203" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" t="s">
+    <row r="209" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>9</v>
+      </c>
+      <c r="B209" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="204" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" t="s">
+    <row r="210" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>9</v>
+      </c>
+      <c r="B210" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="205" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" t="s">
+    <row r="211" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>9</v>
+      </c>
+      <c r="B211" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="206" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" t="s">
+    <row r="212" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>9</v>
+      </c>
+      <c r="B212" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="207" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" t="s">
+    <row r="213" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>9</v>
+      </c>
+      <c r="B213" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="208" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" t="s">
+    <row r="214" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="209" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" t="s">
+    <row r="215" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>9</v>
+      </c>
+      <c r="B215" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="210" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" t="s">
+    <row r="216" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>9</v>
+      </c>
+      <c r="B216" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" t="s">
+    <row r="217" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="212" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" t="s">
+    <row r="218" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>9</v>
+      </c>
+      <c r="B218" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" t="s">
+    <row r="219" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>9</v>
+      </c>
+      <c r="B219" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" t="s">
+    <row r="220" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>9</v>
+      </c>
+      <c r="B220" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="215" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" t="s">
+    <row r="221" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>9</v>
+      </c>
+      <c r="B221" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" t="s">
+    <row r="222" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>9</v>
+      </c>
+      <c r="B222" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
+    <row r="223" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>9</v>
+      </c>
+      <c r="B223" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="218" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" t="s">
+    <row r="224" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>9</v>
+      </c>
+      <c r="B224" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="219" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" t="s">
+    <row r="225" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>9</v>
+      </c>
+      <c r="B225" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="220" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" t="s">
+    <row r="226" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>9</v>
+      </c>
+      <c r="B226" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" t="s">
+    <row r="227" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>9</v>
+      </c>
+      <c r="B227" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" t="s">
+    <row r="228" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>9</v>
+      </c>
+      <c r="B228" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="223" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" t="s">
+    <row r="229" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>9</v>
+      </c>
+      <c r="B229" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" t="s">
+    <row r="230" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>9</v>
+      </c>
+      <c r="B230" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" t="s">
+    <row r="231" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>9</v>
+      </c>
+      <c r="B231" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" t="s">
+    <row r="232" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>9</v>
+      </c>
+      <c r="B232" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="227" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" t="s">
+    <row r="233" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>9</v>
+      </c>
+      <c r="B233" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="228" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" t="s">
+    <row r="234" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>9</v>
+      </c>
+      <c r="B234" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="229" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" t="s">
+    <row r="235" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>9</v>
+      </c>
+      <c r="B235" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="230" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" t="s">
+    <row r="236" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>9</v>
+      </c>
+      <c r="B236" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" t="s">
+    <row r="237" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>9</v>
+      </c>
+      <c r="B237" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="232" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" t="s">
+    <row r="238" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>9</v>
+      </c>
+      <c r="B238" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="233" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" t="s">
+    <row r="239" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>9</v>
+      </c>
+      <c r="B239" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" t="s">
+    <row r="240" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>9</v>
+      </c>
+      <c r="B240" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="235" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" t="s">
+    <row r="241" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>9</v>
+      </c>
+      <c r="B241" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="236" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" t="s">
+    <row r="242" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>9</v>
+      </c>
+      <c r="B242" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="237" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" t="s">
+    <row r="243" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>9</v>
+      </c>
+      <c r="B243" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="238" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" t="s">
+    <row r="244" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>9</v>
+      </c>
+      <c r="B244" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="239" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" t="s">
+    <row r="245" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>9</v>
+      </c>
+      <c r="B245" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="240" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" t="s">
+    <row r="246" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>9</v>
+      </c>
+      <c r="B246" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="241" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" t="s">
+    <row r="247" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>9</v>
+      </c>
+      <c r="B247" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="242" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" t="s">
+    <row r="248" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>9</v>
+      </c>
+      <c r="B248" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="243" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" t="s">
+    <row r="249" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>9</v>
+      </c>
+      <c r="B249" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="244" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" t="s">
+    <row r="250" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>9</v>
+      </c>
+      <c r="B250" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="245" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" t="s">
+    <row r="251" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>9</v>
+      </c>
+      <c r="B251" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="246" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" t="s">
+    <row r="252" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>9</v>
+      </c>
+      <c r="B252" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="247" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" t="s">
+    <row r="253" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>9</v>
+      </c>
+      <c r="B253" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="248" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" t="s">
+    <row r="254" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>9</v>
+      </c>
+      <c r="B254" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="249" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" t="s">
+    <row r="255" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>9</v>
+      </c>
+      <c r="B255" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="250" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" t="s">
+    <row r="256" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>9</v>
+      </c>
+      <c r="B256" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="251" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" t="s">
+    <row r="257" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>9</v>
+      </c>
+      <c r="B257" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" t="s">
+    <row r="258" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>9</v>
+      </c>
+      <c r="B258" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="253" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" t="s">
+    <row r="259" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>9</v>
+      </c>
+      <c r="B259" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="254" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" t="s">
+    <row r="260" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>9</v>
+      </c>
+      <c r="B260" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="255" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" t="s">
+    <row r="261" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>9</v>
+      </c>
+      <c r="B261" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" t="s">
+    <row r="262" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>9</v>
+      </c>
+      <c r="B262" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" t="s">
+    <row r="263" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>9</v>
+      </c>
+      <c r="B263" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" t="s">
+    <row r="264" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>9</v>
+      </c>
+      <c r="B264" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" t="s">
+    <row r="265" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>10</v>
+      </c>
+      <c r="B265" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" t="s">
+    <row r="266" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>10</v>
+      </c>
+      <c r="B266" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" t="s">
+    <row r="267" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>10</v>
+      </c>
+      <c r="B267" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" t="s">
+    <row r="268" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>10</v>
+      </c>
+      <c r="B268" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" t="s">
+    <row r="269" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>10</v>
+      </c>
+      <c r="B269" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" t="s">
+    <row r="270" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>10</v>
+      </c>
+      <c r="B270" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
+    <row r="271" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>10</v>
+      </c>
+      <c r="B271" t="s">
         <v>269</v>
       </c>
-      <c r="B265" t="s">
+    </row>
+    <row r="272" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>10</v>
+      </c>
+      <c r="B272" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" t="s">
+    <row r="273" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>10</v>
+      </c>
+      <c r="B273" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" t="s">
+    <row r="274" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>10</v>
+      </c>
+      <c r="B274" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" t="s">
+    <row r="275" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>10</v>
+      </c>
+      <c r="B275" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" t="s">
+    <row r="276" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>10</v>
+      </c>
+      <c r="B276" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" t="s">
+    <row r="277" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>10</v>
+      </c>
+      <c r="B277" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" t="s">
+    <row r="278" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>10</v>
+      </c>
+      <c r="B278" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" t="s">
+    <row r="279" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>10</v>
+      </c>
+      <c r="B279" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="273" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" t="s">
+    <row r="280" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>10</v>
+      </c>
+      <c r="B280" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="274" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" t="s">
+    <row r="281" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>10</v>
+      </c>
+      <c r="B281" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="275" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" t="s">
+    <row r="282" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>10</v>
+      </c>
+      <c r="B282" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="276" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" t="s">
+    <row r="283" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>10</v>
+      </c>
+      <c r="B283" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="277" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" t="s">
+    <row r="284" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>10</v>
+      </c>
+      <c r="B284" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="278" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" t="s">
+    <row r="285" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>10</v>
+      </c>
+      <c r="B285" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="279" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" t="s">
+    <row r="286" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>10</v>
+      </c>
+      <c r="B286" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="280" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" t="s">
+    <row r="287" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>10</v>
+      </c>
+      <c r="B287" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="281" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" t="s">
+    <row r="288" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>10</v>
+      </c>
+      <c r="B288" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="282" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" t="s">
+    <row r="289" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>10</v>
+      </c>
+      <c r="B289" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="283" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" t="s">
+    <row r="290" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>10</v>
+      </c>
+      <c r="B290" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="284" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" t="s">
+    <row r="291" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>10</v>
+      </c>
+      <c r="B291" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="285" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" t="s">
+    <row r="292" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>10</v>
+      </c>
+      <c r="B292" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="286" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" t="s">
+    <row r="293" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>10</v>
+      </c>
+      <c r="B293" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="287" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" t="s">
+    <row r="294" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>10</v>
+      </c>
+      <c r="B294" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="288" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" t="s">
+    <row r="295" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>11</v>
+      </c>
+      <c r="B295" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" t="s">
+    <row r="296" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>11</v>
+      </c>
+      <c r="B296" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" t="s">
+    <row r="297" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>11</v>
+      </c>
+      <c r="B297" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" t="s">
+    <row r="298" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>11</v>
+      </c>
+      <c r="B298" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" t="s">
+    <row r="299" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>11</v>
+      </c>
+      <c r="B299" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" t="s">
+    <row r="300" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>11</v>
+      </c>
+      <c r="B300" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" t="s">
+    <row r="301" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>11</v>
+      </c>
+      <c r="B301" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
+    <row r="302" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>11</v>
+      </c>
+      <c r="B302" t="s">
         <v>300</v>
       </c>
-      <c r="B295" t="s">
+    </row>
+    <row r="303" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>11</v>
+      </c>
+      <c r="B303" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" t="s">
+    <row r="304" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>11</v>
+      </c>
+      <c r="B304" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" t="s">
+    <row r="305" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>11</v>
+      </c>
+      <c r="B305" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" t="s">
+    <row r="306" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>11</v>
+      </c>
+      <c r="B306" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
+    <row r="307" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>11</v>
+      </c>
+      <c r="B307" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" t="s">
+    <row r="308" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>11</v>
+      </c>
+      <c r="B308" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B301" t="s">
+    <row r="309" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>11</v>
+      </c>
+      <c r="B309" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" t="s">
+    <row r="310" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>11</v>
+      </c>
+      <c r="B310" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
+    <row r="311" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>11</v>
+      </c>
+      <c r="B311" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
+    <row r="312" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>11</v>
+      </c>
+      <c r="B312" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="305" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
+    <row r="313" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>11</v>
+      </c>
+      <c r="B313" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B306" t="s">
+    <row r="314" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>11</v>
+      </c>
+      <c r="B314" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="307" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B307" t="s">
+    <row r="315" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>11</v>
+      </c>
+      <c r="B315" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="308" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" t="s">
+    <row r="316" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>11</v>
+      </c>
+      <c r="B316" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="309" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" t="s">
+    <row r="317" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>11</v>
+      </c>
+      <c r="B317" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="310" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B310" t="s">
+    <row r="318" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>11</v>
+      </c>
+      <c r="B318" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="311" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" t="s">
+    <row r="319" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>11</v>
+      </c>
+      <c r="B319" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="312" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" t="s">
+    <row r="320" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>11</v>
+      </c>
+      <c r="B320" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="313" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" t="s">
+    <row r="321" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>11</v>
+      </c>
+      <c r="B321" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="314" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B314" t="s">
+    <row r="322" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>11</v>
+      </c>
+      <c r="B322" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="315" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B315" t="s">
+    <row r="323" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>11</v>
+      </c>
+      <c r="B323" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="316" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" t="s">
+    <row r="324" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>11</v>
+      </c>
+      <c r="B324" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="317" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" t="s">
+    <row r="325" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>11</v>
+      </c>
+      <c r="B325" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="318" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" t="s">
+    <row r="326" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>11</v>
+      </c>
+      <c r="B326" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="319" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" t="s">
+    <row r="327" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>11</v>
+      </c>
+      <c r="B327" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="320" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" t="s">
+    <row r="328" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>11</v>
+      </c>
+      <c r="B328" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" t="s">
+    <row r="329" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>11</v>
+      </c>
+      <c r="B329" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" t="s">
+    <row r="330" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>11</v>
+      </c>
+      <c r="B330" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B323" t="s">
+    <row r="331" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>11</v>
+      </c>
+      <c r="B331" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B324" t="s">
+    <row r="332" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>12</v>
+      </c>
+      <c r="B332" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" t="s">
+    <row r="333" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>12</v>
+      </c>
+      <c r="B333" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" t="s">
+    <row r="334" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>12</v>
+      </c>
+      <c r="B334" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B327" t="s">
+    <row r="335" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>12</v>
+      </c>
+      <c r="B335" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" t="s">
+    <row r="336" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>12</v>
+      </c>
+      <c r="B336" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B329" t="s">
+    <row r="337" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>12</v>
+      </c>
+      <c r="B337" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B330" t="s">
+    <row r="338" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>12</v>
+      </c>
+      <c r="B338" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B331" t="s">
+    <row r="339" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>12</v>
+      </c>
+      <c r="B339" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
+    <row r="340" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>12</v>
+      </c>
+      <c r="B340" t="s">
         <v>338</v>
       </c>
-      <c r="B332" t="s">
+    </row>
+    <row r="341" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>12</v>
+      </c>
+      <c r="B341" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B333" t="s">
+    <row r="342" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>12</v>
+      </c>
+      <c r="B342" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B334" t="s">
+    <row r="343" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>12</v>
+      </c>
+      <c r="B343" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" t="s">
+    <row r="344" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>12</v>
+      </c>
+      <c r="B344" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B336" t="s">
+    <row r="345" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>12</v>
+      </c>
+      <c r="B345" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="337" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B337" t="s">
+    <row r="346" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>12</v>
+      </c>
+      <c r="B346" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="338" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" t="s">
+    <row r="347" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>12</v>
+      </c>
+      <c r="B347" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="339" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" t="s">
+    <row r="348" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>12</v>
+      </c>
+      <c r="B348" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="340" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B340" t="s">
+    <row r="349" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>12</v>
+      </c>
+      <c r="B349" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="341" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B341" t="s">
+    <row r="350" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>12</v>
+      </c>
+      <c r="B350" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="342" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B342" t="s">
+    <row r="351" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>12</v>
+      </c>
+      <c r="B351" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="343" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B343" t="s">
+    <row r="352" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>12</v>
+      </c>
+      <c r="B352" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="344" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" t="s">
+    <row r="353" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>12</v>
+      </c>
+      <c r="B353" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="345" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" t="s">
+    <row r="354" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>12</v>
+      </c>
+      <c r="B354" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="346" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B346" t="s">
+    <row r="355" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>12</v>
+      </c>
+      <c r="B355" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="347" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" t="s">
+    <row r="356" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>12</v>
+      </c>
+      <c r="B356" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="348" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" t="s">
+    <row r="357" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>12</v>
+      </c>
+      <c r="B357" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="349" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" t="s">
+    <row r="358" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>12</v>
+      </c>
+      <c r="B358" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="350" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B350" t="s">
+    <row r="359" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>12</v>
+      </c>
+      <c r="B359" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="351" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" t="s">
+    <row r="360" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>12</v>
+      </c>
+      <c r="B360" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="352" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B352" t="s">
+    <row r="361" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>12</v>
+      </c>
+      <c r="B361" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="353" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B353" t="s">
+    <row r="362" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>12</v>
+      </c>
+      <c r="B362" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="354" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B354" t="s">
+    <row r="363" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>12</v>
+      </c>
+      <c r="B363" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="355" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B355" t="s">
+    <row r="364" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>12</v>
+      </c>
+      <c r="B364" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="356" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B356" t="s">
+    <row r="365" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>12</v>
+      </c>
+      <c r="B365" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="357" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B357" t="s">
+    <row r="366" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>12</v>
+      </c>
+      <c r="B366" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="358" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B358" t="s">
+    <row r="367" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>12</v>
+      </c>
+      <c r="B367" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="359" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B359" t="s">
+    <row r="368" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>12</v>
+      </c>
+      <c r="B368" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="360" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B360" t="s">
+    <row r="369" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>12</v>
+      </c>
+      <c r="B369" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="361" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" t="s">
+    <row r="370" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>12</v>
+      </c>
+      <c r="B370" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="362" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" t="s">
+    <row r="371" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>12</v>
+      </c>
+      <c r="B371" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="363" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" t="s">
+    <row r="372" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>12</v>
+      </c>
+      <c r="B372" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="364" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B364" t="s">
+    <row r="373" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>12</v>
+      </c>
+      <c r="B373" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="365" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B365" t="s">
+    <row r="374" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>12</v>
+      </c>
+      <c r="B374" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="366" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B366" t="s">
+    <row r="375" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>12</v>
+      </c>
+      <c r="B375" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="367" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B367" t="s">
+    <row r="376" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>12</v>
+      </c>
+      <c r="B376" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="368" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" t="s">
+    <row r="377" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>12</v>
+      </c>
+      <c r="B377" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="369" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" t="s">
+    <row r="378" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>12</v>
+      </c>
+      <c r="B378" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="370" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" t="s">
+    <row r="379" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>12</v>
+      </c>
+      <c r="B379" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="371" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B371" t="s">
+    <row r="380" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>12</v>
+      </c>
+      <c r="B380" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="372" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" t="s">
+    <row r="381" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>12</v>
+      </c>
+      <c r="B381" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="373" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B373" t="s">
+    <row r="382" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>12</v>
+      </c>
+      <c r="B382" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="374" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B374" t="s">
+    <row r="383" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>12</v>
+      </c>
+      <c r="B383" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="375" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B375" t="s">
+    <row r="384" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>12</v>
+      </c>
+      <c r="B384" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="376" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B376" t="s">
+    <row r="385" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>12</v>
+      </c>
+      <c r="B385" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="377" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B377" t="s">
+    <row r="386" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>12</v>
+      </c>
+      <c r="B386" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="378" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B378" t="s">
+    <row r="387" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>12</v>
+      </c>
+      <c r="B387" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="379" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B379" t="s">
+    <row r="388" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>12</v>
+      </c>
+      <c r="B388" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="380" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B380" t="s">
+    <row r="389" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>12</v>
+      </c>
+      <c r="B389" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="381" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B381" t="s">
+    <row r="390" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>12</v>
+      </c>
+      <c r="B390" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="382" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B382" t="s">
+    <row r="391" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>12</v>
+      </c>
+      <c r="B391" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="383" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B383" t="s">
+    <row r="392" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>12</v>
+      </c>
+      <c r="B392" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="384" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B384" t="s">
+    <row r="393" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>12</v>
+      </c>
+      <c r="B393" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="385" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B385" t="s">
+    <row r="394" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>12</v>
+      </c>
+      <c r="B394" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="386" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B386" t="s">
+    <row r="395" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>12</v>
+      </c>
+      <c r="B395" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="387" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B387" t="s">
+    <row r="396" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>12</v>
+      </c>
+      <c r="B396" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="388" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B388" t="s">
+    <row r="397" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>12</v>
+      </c>
+      <c r="B397" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="389" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B389" t="s">
+    <row r="398" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>12</v>
+      </c>
+      <c r="B398" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="390" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B390" t="s">
+    <row r="399" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>12</v>
+      </c>
+      <c r="B399" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="391" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B391" t="s">
+    <row r="400" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>12</v>
+      </c>
+      <c r="B400" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="392" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B392" t="s">
+    <row r="401" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>12</v>
+      </c>
+      <c r="B401" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="393" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" t="s">
+    <row r="402" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>12</v>
+      </c>
+      <c r="B402" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="394" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B394" t="s">
+    <row r="403" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>12</v>
+      </c>
+      <c r="B403" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="395" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" t="s">
+    <row r="404" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>12</v>
+      </c>
+      <c r="B404" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="396" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B396" t="s">
+    <row r="405" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>12</v>
+      </c>
+      <c r="B405" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="397" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B397" t="s">
+    <row r="406" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>12</v>
+      </c>
+      <c r="B406" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="398" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B398" t="s">
+    <row r="407" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>13</v>
+      </c>
+      <c r="B407" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="399" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B399" t="s">
+    <row r="408" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>13</v>
+      </c>
+      <c r="B408" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="400" spans="2:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B400" t="s">
+    <row r="409" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>13</v>
+      </c>
+      <c r="B409" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B401" t="s">
+    <row r="410" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>13</v>
+      </c>
+      <c r="B410" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B402" t="s">
+    <row r="411" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>13</v>
+      </c>
+      <c r="B411" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B403" t="s">
+    <row r="412" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>13</v>
+      </c>
+      <c r="B412" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B404" t="s">
+    <row r="413" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>13</v>
+      </c>
+      <c r="B413" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B405" t="s">
+    <row r="414" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>13</v>
+      </c>
+      <c r="B414" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" t="s">
+    <row r="415" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>13</v>
+      </c>
+      <c r="B415" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
+    <row r="416" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>13</v>
+      </c>
+      <c r="B416" t="s">
         <v>414</v>
       </c>
-      <c r="B407" t="s">
+    </row>
+    <row r="417" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>13</v>
+      </c>
+      <c r="B417" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B408" t="s">
+    <row r="418" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>14</v>
+      </c>
+      <c r="B418" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B409" t="s">
+    <row r="419" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>14</v>
+      </c>
+      <c r="B419" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B410" t="s">
+    <row r="420" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>14</v>
+      </c>
+      <c r="B420" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B411" t="s">
+    <row r="421" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>14</v>
+      </c>
+      <c r="B421" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B412" t="s">
+    <row r="422" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>14</v>
+      </c>
+      <c r="B422" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B413" t="s">
+    <row r="423" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>14</v>
+      </c>
+      <c r="B423" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B414" t="s">
+    <row r="424" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>14</v>
+      </c>
+      <c r="B424" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B415" t="s">
+    <row r="425" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>14</v>
+      </c>
+      <c r="B425" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B416" t="s">
+    <row r="426" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>14</v>
+      </c>
+      <c r="B426" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B417" t="s">
+    <row r="427" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>14</v>
+      </c>
+      <c r="B427" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
+    <row r="428" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>14</v>
+      </c>
+      <c r="B428" t="s">
         <v>426</v>
       </c>
-      <c r="B418" t="s">
+    </row>
+    <row r="429" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>14</v>
+      </c>
+      <c r="B429" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B419" t="s">
+    <row r="430" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>14</v>
+      </c>
+      <c r="B430" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B420" t="s">
+    <row r="431" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>14</v>
+      </c>
+      <c r="B431" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B421" t="s">
+    <row r="432" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>14</v>
+      </c>
+      <c r="B432" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B422" t="s">
+    <row r="433" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>15</v>
+      </c>
+      <c r="B433" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B423" t="s">
+    <row r="434" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>15</v>
+      </c>
+      <c r="B434" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B424" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B425" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B426" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B427" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B428" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B429" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B430" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B431" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B432" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>442</v>
-      </c>
-      <c r="B433" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B434" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
